--- a/Code/Results/Cases/Case_5_30/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_30/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.544719853175991</v>
+        <v>3.803943779318388</v>
       </c>
       <c r="C2">
-        <v>0.3725344224335458</v>
+        <v>1.016625477848493</v>
       </c>
       <c r="D2">
-        <v>0.342971029320239</v>
+        <v>0.00587617259203288</v>
       </c>
       <c r="E2">
-        <v>0.3139495504199559</v>
+        <v>0.02735662721788223</v>
       </c>
       <c r="F2">
-        <v>6.536597842516443</v>
+        <v>2.907313971534933</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.07562625766355069</v>
       </c>
       <c r="K2">
-        <v>0.623803859960276</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4379061865719081</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.8757905034996725</v>
+      </c>
+      <c r="N2">
+        <v>1.297862128135321</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.175916641387346</v>
+        <v>3.297432787552623</v>
       </c>
       <c r="C3">
-        <v>0.317925697699394</v>
+        <v>0.8772342061462552</v>
       </c>
       <c r="D3">
-        <v>0.3039075506719371</v>
+        <v>0.005184802141243949</v>
       </c>
       <c r="E3">
-        <v>0.2690608955042322</v>
+        <v>0.02651729380016832</v>
       </c>
       <c r="F3">
-        <v>5.721722183335089</v>
+        <v>2.657467000830891</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.07242549127001396</v>
       </c>
       <c r="K3">
-        <v>0.5322915501952536</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3740564948176441</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.7641144430517741</v>
+      </c>
+      <c r="N3">
+        <v>1.327676152261759</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.956033482536327</v>
+        <v>2.992951398277057</v>
       </c>
       <c r="C4">
-        <v>0.2853823836926352</v>
+        <v>0.7934297244134143</v>
       </c>
       <c r="D4">
-        <v>0.2805597173947376</v>
+        <v>0.004784333529005202</v>
       </c>
       <c r="E4">
-        <v>0.2422867230746348</v>
+        <v>0.02603285575725867</v>
       </c>
       <c r="F4">
-        <v>5.234643371682097</v>
+        <v>2.510710851373716</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.0705958795890993</v>
       </c>
       <c r="K4">
-        <v>0.4777353793267594</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3359796775182033</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.6970748742721327</v>
+      </c>
+      <c r="N4">
+        <v>1.348138114159241</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.867828709570631</v>
+        <v>2.870293100875699</v>
       </c>
       <c r="C5">
-        <v>0.2723256838648069</v>
+        <v>0.759663709738561</v>
       </c>
       <c r="D5">
-        <v>0.2711785537790519</v>
+        <v>0.004626113957860056</v>
       </c>
       <c r="E5">
-        <v>0.2315428794455983</v>
+        <v>0.0258427946223776</v>
       </c>
       <c r="F5">
-        <v>5.03897277467064</v>
+        <v>2.452408835262602</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.06988177827030739</v>
       </c>
       <c r="K5">
-        <v>0.4558496398655407</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3207010718848764</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.670091931522073</v>
+      </c>
+      <c r="N5">
+        <v>1.356984284770149</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.853260125249108</v>
+        <v>2.8500055622996</v>
       </c>
       <c r="C6">
-        <v>0.2701688491591483</v>
+        <v>0.7540784090045349</v>
       </c>
       <c r="D6">
-        <v>0.2696281374014546</v>
+        <v>0.004600113269082939</v>
       </c>
       <c r="E6">
-        <v>0.2297681078708109</v>
+        <v>0.02581166751242758</v>
       </c>
       <c r="F6">
-        <v>5.006638056855422</v>
+        <v>2.442813893824393</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.06976503116761634</v>
       </c>
       <c r="K6">
-        <v>0.4522347173434227</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3181772222014061</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.6656304098926782</v>
+      </c>
+      <c r="N6">
+        <v>1.358482908613453</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.9548385658141</v>
+        <v>2.991291708858398</v>
       </c>
       <c r="C7">
-        <v>0.2852055196519387</v>
+        <v>0.7929728644021736</v>
       </c>
       <c r="D7">
-        <v>0.2804326935514041</v>
+        <v>0.004782180904817857</v>
       </c>
       <c r="E7">
-        <v>0.2421411908010569</v>
+        <v>0.0260302632907683</v>
       </c>
       <c r="F7">
-        <v>5.231993718387429</v>
+        <v>2.509918700425288</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.07058612481243642</v>
       </c>
       <c r="K7">
-        <v>0.4774388974666337</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3357727172389531</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.696709672291469</v>
+      </c>
+      <c r="N7">
+        <v>1.348255403873907</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.416033016213305</v>
+        <v>3.627807381102514</v>
       </c>
       <c r="C8">
-        <v>0.3534727697098674</v>
+        <v>0.9681533913480962</v>
       </c>
       <c r="D8">
-        <v>0.3293523868865975</v>
+        <v>0.005632114633057128</v>
       </c>
       <c r="E8">
-        <v>0.2982884256204557</v>
+        <v>0.02706054062941021</v>
       </c>
       <c r="F8">
-        <v>6.252546597898345</v>
+        <v>2.819678670834179</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.07449280820179638</v>
       </c>
       <c r="K8">
-        <v>0.5918702620245995</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4156276799552998</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.8369363413828808</v>
+      </c>
+      <c r="N8">
+        <v>1.307672742148299</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.38578404908418</v>
+        <v>4.938875442929259</v>
       </c>
       <c r="C9">
-        <v>0.497469648988357</v>
+        <v>1.329051405412997</v>
       </c>
       <c r="D9">
-        <v>0.4317571641732485</v>
+        <v>0.007545488510666054</v>
       </c>
       <c r="E9">
-        <v>0.4162920901842071</v>
+        <v>0.02934777656876442</v>
       </c>
       <c r="F9">
-        <v>8.386125909771891</v>
+        <v>3.488539433612601</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.08336398801252898</v>
       </c>
       <c r="K9">
-        <v>0.8326255759149106</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.583572037228052</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1.126530331819851</v>
+      </c>
+      <c r="N9">
+        <v>1.246944032816302</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.160425607151979</v>
+        <v>5.958265404148392</v>
       </c>
       <c r="C10">
-        <v>0.6133329127572722</v>
+        <v>1.609974860050954</v>
       </c>
       <c r="D10">
-        <v>0.513306273481561</v>
+        <v>0.009194113087543698</v>
       </c>
       <c r="E10">
-        <v>0.510580853580791</v>
+        <v>0.03122537695393923</v>
       </c>
       <c r="F10">
-        <v>10.07949628095116</v>
+        <v>4.031222895112478</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.09083242576374317</v>
       </c>
       <c r="K10">
-        <v>1.025211000721768</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.7179370178377553</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1.352153032069381</v>
+      </c>
+      <c r="N10">
+        <v>1.216613010729247</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.532748214135552</v>
+        <v>6.438954607682888</v>
       </c>
       <c r="C11">
-        <v>0.6693621942955588</v>
+        <v>1.742587621060125</v>
       </c>
       <c r="D11">
-        <v>0.5524503270561922</v>
+        <v>0.01002270881586043</v>
       </c>
       <c r="E11">
-        <v>0.5559228918904253</v>
+        <v>0.03213151766531297</v>
       </c>
       <c r="F11">
-        <v>10.89003554128857</v>
+        <v>4.292925071123165</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.09449303507471996</v>
       </c>
       <c r="K11">
-        <v>1.117885160186617</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.782618143741999</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1.45863932028179</v>
+      </c>
+      <c r="N11">
+        <v>1.206666036578</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.677289940936703</v>
+        <v>6.623890113903826</v>
       </c>
       <c r="C12">
-        <v>0.6911792754462169</v>
+        <v>1.79363622962444</v>
       </c>
       <c r="D12">
-        <v>0.567639189605444</v>
+        <v>0.01035046493404757</v>
       </c>
       <c r="E12">
-        <v>0.5735305911226902</v>
+        <v>0.03248303360443927</v>
       </c>
       <c r="F12">
-        <v>11.20411177225367</v>
+        <v>4.394525012030044</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.09592266689530504</v>
       </c>
       <c r="K12">
-        <v>1.153884027717083</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.8077485932610671</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1.499620930823525</v>
+      </c>
+      <c r="N12">
+        <v>1.203528404296137</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.645989740469133</v>
+        <v>6.583923269123488</v>
       </c>
       <c r="C13">
-        <v>0.686451628162132</v>
+        <v>1.782602592450303</v>
       </c>
       <c r="D13">
-        <v>0.5643504115569442</v>
+        <v>0.01027920651258363</v>
       </c>
       <c r="E13">
-        <v>0.5697174185612823</v>
+        <v>0.03240693976679232</v>
       </c>
       <c r="F13">
-        <v>11.13612723332551</v>
+        <v>4.372526030636976</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.09561273950021132</v>
       </c>
       <c r="K13">
-        <v>1.146087511706597</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.802305648938372</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1.490763724366616</v>
+      </c>
+      <c r="N13">
+        <v>1.204174836868532</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.544564092092628</v>
+        <v>6.454108102230464</v>
       </c>
       <c r="C14">
-        <v>0.6711442692004539</v>
+        <v>1.746769893163105</v>
       </c>
       <c r="D14">
-        <v>0.5536921245002588</v>
+        <v>0.01004937602379208</v>
       </c>
       <c r="E14">
-        <v>0.5573621567241958</v>
+        <v>0.03216026347421597</v>
       </c>
       <c r="F14">
-        <v>10.91572276340963</v>
+        <v>4.301231366054026</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.09460974595918259</v>
       </c>
       <c r="K14">
-        <v>1.120827509162353</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.7846720485844614</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1.461997067573023</v>
+      </c>
+      <c r="N14">
+        <v>1.206394818002536</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.482923415180323</v>
+        <v>6.374986621176845</v>
       </c>
       <c r="C15">
-        <v>0.6618503298631708</v>
+        <v>1.724934040808876</v>
       </c>
       <c r="D15">
-        <v>0.5472136558709053</v>
+        <v>0.009910507803976287</v>
       </c>
       <c r="E15">
-        <v>0.5498540670734968</v>
+        <v>0.03201028761614921</v>
       </c>
       <c r="F15">
-        <v>10.78169431432786</v>
+        <v>4.257898645011579</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.09400122152347734</v>
       </c>
       <c r="K15">
-        <v>1.105478845540659</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.773958150768884</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1.444465666642515</v>
+      </c>
+      <c r="N15">
+        <v>1.20783899212276</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.136549692326014</v>
+        <v>5.927231054148763</v>
       </c>
       <c r="C16">
-        <v>0.6097479415477949</v>
+        <v>1.601416575425503</v>
       </c>
       <c r="D16">
-        <v>0.5107950714021001</v>
+        <v>0.009141762109383222</v>
       </c>
       <c r="E16">
-        <v>0.5076738082119689</v>
+        <v>0.03116727900865612</v>
       </c>
       <c r="F16">
-        <v>10.02744453147412</v>
+        <v>4.014448498561649</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.09059895078261349</v>
       </c>
       <c r="K16">
-        <v>1.019270683069337</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.7137916387157546</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.345279884853724</v>
+      </c>
+      <c r="N16">
+        <v>1.217346721159657</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.929607614574479</v>
+        <v>5.657203769490877</v>
       </c>
       <c r="C17">
-        <v>0.5787142807748467</v>
+        <v>1.526968330811542</v>
       </c>
       <c r="D17">
-        <v>0.4890239204871136</v>
+        <v>0.008692051167017212</v>
       </c>
       <c r="E17">
-        <v>0.4824799941935609</v>
+        <v>0.03066404041393511</v>
       </c>
       <c r="F17">
-        <v>9.575916153539026</v>
+        <v>3.869141476944975</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.08858288952323079</v>
       </c>
       <c r="K17">
-        <v>0.9677960961701046</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.6778734398244453</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.285487549257596</v>
+      </c>
+      <c r="N17">
+        <v>1.224215560310796</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.812407583863433</v>
+        <v>5.503455817590464</v>
       </c>
       <c r="C18">
-        <v>0.5611685248363472</v>
+        <v>1.484591822355469</v>
       </c>
       <c r="D18">
-        <v>0.4766893271145136</v>
+        <v>0.008440602991137247</v>
       </c>
       <c r="E18">
-        <v>0.4682136637682603</v>
+        <v>0.03037942497193136</v>
       </c>
       <c r="F18">
-        <v>9.319898022725397</v>
+        <v>3.786935819563638</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.08744769462212076</v>
       </c>
       <c r="K18">
-        <v>0.9386535303711696</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.6575401703853245</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.251451793957344</v>
+      </c>
+      <c r="N18">
+        <v>1.228523623882225</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.773021081972217</v>
+        <v>5.451654994586818</v>
       </c>
       <c r="C19">
-        <v>0.555276760457275</v>
+        <v>1.470316297560032</v>
       </c>
       <c r="D19">
-        <v>0.4725433308441893</v>
+        <v>0.008356632351570248</v>
       </c>
       <c r="E19">
-        <v>0.4634195829256456</v>
+        <v>0.03028386408601236</v>
       </c>
       <c r="F19">
-        <v>9.233811458334969</v>
+        <v>3.759327652280319</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.08706736951903338</v>
       </c>
       <c r="K19">
-        <v>0.9288613328009347</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.650708273956468</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.239985971394503</v>
+      </c>
+      <c r="N19">
+        <v>1.230041523006491</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.951443323004298</v>
+        <v>5.685783537368252</v>
       </c>
       <c r="C20">
-        <v>0.5819856087265123</v>
+        <v>1.534846576138648</v>
       </c>
       <c r="D20">
-        <v>0.4913216119650485</v>
+        <v>0.008739159279588904</v>
       </c>
       <c r="E20">
-        <v>0.4851381268324531</v>
+        <v>0.03071710462356236</v>
       </c>
       <c r="F20">
-        <v>9.623591390550672</v>
+        <v>3.884465285634349</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.08879494061109483</v>
       </c>
       <c r="K20">
-        <v>0.9732264498146321</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.6816624410019898</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.291815080332441</v>
+      </c>
+      <c r="N20">
+        <v>1.223446875370144</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.574252642344106</v>
+        <v>6.492154894562987</v>
       </c>
       <c r="C21">
-        <v>0.6756230079576255</v>
+        <v>1.757271057321759</v>
       </c>
       <c r="D21">
-        <v>0.5568121424370247</v>
+        <v>0.01011647931685289</v>
       </c>
       <c r="E21">
-        <v>0.5609785395211162</v>
+        <v>0.03223248295796211</v>
       </c>
       <c r="F21">
-        <v>10.98025470601311</v>
+        <v>4.322101300873953</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.094903121562254</v>
       </c>
       <c r="K21">
-        <v>1.128220805739815</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.7898330270445513</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.470427773098052</v>
+      </c>
+      <c r="N21">
+        <v>1.205725020276418</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.002435140902378</v>
+        <v>7.036396683711246</v>
       </c>
       <c r="C22">
-        <v>0.740397420929412</v>
+        <v>1.907563788886762</v>
       </c>
       <c r="D22">
-        <v>0.6017922832341469</v>
+        <v>0.01109979702571806</v>
       </c>
       <c r="E22">
-        <v>0.6131507909757374</v>
+        <v>0.03327224251908945</v>
       </c>
       <c r="F22">
-        <v>11.90941340494811</v>
+        <v>4.622903215849192</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.09915163724435416</v>
       </c>
       <c r="K22">
-        <v>1.234908778864963</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.8643236084028132</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.591055388854983</v>
+      </c>
+      <c r="N22">
+        <v>1.197853981453463</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.771701832362282</v>
+        <v>6.74417206898238</v>
       </c>
       <c r="C23">
-        <v>0.7054503214377519</v>
+        <v>1.826847202064243</v>
       </c>
       <c r="D23">
-        <v>0.5775581404824379</v>
+        <v>0.01056634500239184</v>
       </c>
       <c r="E23">
-        <v>0.5850333054424439</v>
+        <v>0.03271244937144502</v>
       </c>
       <c r="F23">
-        <v>11.40908200604207</v>
+        <v>4.46086990875375</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.09685856806218851</v>
       </c>
       <c r="K23">
-        <v>1.177404457737467</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.8241697498146081</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.526278923855372</v>
+      </c>
+      <c r="N23">
+        <v>1.20168703246722</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.941565924003044</v>
+        <v>5.672858004258046</v>
       </c>
       <c r="C24">
-        <v>0.5805057284964619</v>
+        <v>1.531283508445995</v>
       </c>
       <c r="D24">
-        <v>0.4902822641520572</v>
+        <v>0.008717839792340421</v>
       </c>
       <c r="E24">
-        <v>0.4839357124433334</v>
+        <v>0.03069309971116496</v>
       </c>
       <c r="F24">
-        <v>9.602026389838301</v>
+        <v>3.877533265714533</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.08869899838866502</v>
       </c>
       <c r="K24">
-        <v>0.9707699953820423</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.6799484565616183</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.288953353216229</v>
+      </c>
+      <c r="N24">
+        <v>1.223793284929926</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.114381237495024</v>
+        <v>4.575770145451088</v>
       </c>
       <c r="C25">
-        <v>0.4570724715693473</v>
+        <v>1.229067160562181</v>
       </c>
       <c r="D25">
-        <v>0.4031414745663255</v>
+        <v>0.006992834538881887</v>
       </c>
       <c r="E25">
-        <v>0.3832668792380858</v>
+        <v>0.02869716301621317</v>
       </c>
       <c r="F25">
-        <v>7.79057999690184</v>
+        <v>3.299703695764265</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.08081423821391098</v>
       </c>
       <c r="K25">
-        <v>0.7652148020054526</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.5365492904156</v>
+        <v>0</v>
       </c>
       <c r="M25">
+        <v>1.04624722871209</v>
+      </c>
+      <c r="N25">
+        <v>1.261089376800271</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_30/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_30/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.803943779318388</v>
+        <v>3.902332153433576</v>
       </c>
       <c r="C2">
-        <v>1.016625477848493</v>
+        <v>1.078227539620741</v>
       </c>
       <c r="D2">
-        <v>0.00587617259203288</v>
+        <v>0.0375754533496675</v>
       </c>
       <c r="E2">
-        <v>0.02735662721788223</v>
+        <v>0.1279755769589102</v>
       </c>
       <c r="F2">
-        <v>2.907313971534933</v>
+        <v>2.47451478656356</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.07562625766355069</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8757905034996725</v>
+        <v>1.252383077000275</v>
       </c>
       <c r="N2">
-        <v>1.297862128135321</v>
+        <v>1.024806871487428</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.297432787552623</v>
+        <v>3.354733989029796</v>
       </c>
       <c r="C3">
-        <v>0.8772342061462552</v>
+        <v>0.9257542027927741</v>
       </c>
       <c r="D3">
-        <v>0.005184802141243949</v>
+        <v>0.03634958603243632</v>
       </c>
       <c r="E3">
-        <v>0.02651729380016832</v>
+        <v>0.1107643116811623</v>
       </c>
       <c r="F3">
-        <v>2.657467000830891</v>
+        <v>2.181968208376773</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.07242549127001396</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7641144430517741</v>
+        <v>1.07578808942106</v>
       </c>
       <c r="N3">
-        <v>1.327676152261759</v>
+        <v>1.034906324952502</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.992951398277057</v>
+        <v>3.025185837995252</v>
       </c>
       <c r="C4">
-        <v>0.7934297244134143</v>
+        <v>0.8339497512866956</v>
       </c>
       <c r="D4">
-        <v>0.004784333529005202</v>
+        <v>0.03573912351826891</v>
       </c>
       <c r="E4">
-        <v>0.02603285575725867</v>
+        <v>0.1005344498912493</v>
       </c>
       <c r="F4">
-        <v>2.510710851373716</v>
+        <v>2.008684620698688</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0705958795890993</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6970748742721327</v>
+        <v>0.9697736238233716</v>
       </c>
       <c r="N4">
-        <v>1.348138114159241</v>
+        <v>1.043353875257949</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.870293100875699</v>
+        <v>2.892315530533267</v>
       </c>
       <c r="C5">
-        <v>0.759663709738561</v>
+        <v>0.7969198655493699</v>
       </c>
       <c r="D5">
-        <v>0.004626113957860056</v>
+        <v>0.03552219094273923</v>
       </c>
       <c r="E5">
-        <v>0.0258427946223776</v>
+        <v>0.09643891203085886</v>
       </c>
       <c r="F5">
-        <v>2.452408835262602</v>
+        <v>1.939467536814718</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.06988177827030739</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.670091931522073</v>
+        <v>0.9270878304391914</v>
       </c>
       <c r="N5">
-        <v>1.356984284770149</v>
+        <v>1.04731474610989</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.8500055622996</v>
+        <v>2.870331474934403</v>
       </c>
       <c r="C6">
-        <v>0.7540784090045349</v>
+        <v>0.7907920534238144</v>
       </c>
       <c r="D6">
-        <v>0.004600113269082939</v>
+        <v>0.03548798586416879</v>
       </c>
       <c r="E6">
-        <v>0.02581166751242758</v>
+        <v>0.09576295275962465</v>
       </c>
       <c r="F6">
-        <v>2.442813893824393</v>
+        <v>1.928053104757993</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.06976503116761634</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.6656304098926782</v>
+        <v>0.9200285542406448</v>
       </c>
       <c r="N6">
-        <v>1.358482908613453</v>
+        <v>1.048002489690361</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.991291708858398</v>
+        <v>3.023388459792159</v>
       </c>
       <c r="C7">
-        <v>0.7929728644021736</v>
+        <v>0.8334489036001287</v>
       </c>
       <c r="D7">
-        <v>0.004782180904817857</v>
+        <v>0.0357360738532897</v>
       </c>
       <c r="E7">
-        <v>0.0260302632907683</v>
+        <v>0.1004789342310382</v>
       </c>
       <c r="F7">
-        <v>2.509918700425288</v>
+        <v>2.007745722978314</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.07058612481243642</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.696709672291469</v>
+        <v>0.969195973190061</v>
       </c>
       <c r="N7">
-        <v>1.348255403873907</v>
+        <v>1.043405251763303</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.627807381102514</v>
+        <v>3.711971053050149</v>
       </c>
       <c r="C8">
-        <v>0.9681533913480962</v>
+        <v>1.025230217963838</v>
       </c>
       <c r="D8">
-        <v>0.005632114633057128</v>
+        <v>0.0371207435788321</v>
       </c>
       <c r="E8">
-        <v>0.02706054062941021</v>
+        <v>0.1219635037055689</v>
       </c>
       <c r="F8">
-        <v>2.819678670834179</v>
+        <v>2.372203309209212</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.07449280820179638</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.8369363413828808</v>
+        <v>1.190933588814289</v>
       </c>
       <c r="N8">
-        <v>1.307672742148299</v>
+        <v>1.027793371237593</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.938875442929259</v>
+        <v>5.128470555764636</v>
       </c>
       <c r="C9">
-        <v>1.329051405412997</v>
+        <v>1.419594892843691</v>
       </c>
       <c r="D9">
-        <v>0.007545488510666054</v>
+        <v>0.04116950974400879</v>
       </c>
       <c r="E9">
-        <v>0.02934777656876442</v>
+        <v>0.1673843838187707</v>
       </c>
       <c r="F9">
-        <v>3.488539433612601</v>
+        <v>3.147353427198055</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08336398801252898</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.126530331819851</v>
+        <v>1.649642784025204</v>
       </c>
       <c r="N9">
-        <v>1.246944032816302</v>
+        <v>1.017390668682452</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.958265404148392</v>
+        <v>6.230932870393701</v>
       </c>
       <c r="C10">
-        <v>1.609974860050954</v>
+        <v>1.726807759650171</v>
       </c>
       <c r="D10">
-        <v>0.009194113087543698</v>
+        <v>0.04529575390327523</v>
       </c>
       <c r="E10">
-        <v>0.03122537695393923</v>
+        <v>0.2037550306301199</v>
       </c>
       <c r="F10">
-        <v>4.031222895112478</v>
+        <v>3.770144744405428</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09083242576374317</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.352153032069381</v>
+        <v>2.008888006270084</v>
       </c>
       <c r="N10">
-        <v>1.216613010729247</v>
+        <v>1.025946235021166</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.438954607682888</v>
+        <v>6.751711803495994</v>
       </c>
       <c r="C11">
-        <v>1.742587621060125</v>
+        <v>1.872095289547758</v>
       </c>
       <c r="D11">
-        <v>0.01002270881586043</v>
+        <v>0.04751791149022466</v>
       </c>
       <c r="E11">
-        <v>0.03213151766531297</v>
+        <v>0.2212263892226858</v>
       </c>
       <c r="F11">
-        <v>4.292925071123165</v>
+        <v>4.069520374038348</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09449303507471996</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.45863932028179</v>
+        <v>2.179243359810883</v>
       </c>
       <c r="N11">
-        <v>1.206666036578</v>
+        <v>1.034418294437899</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.623890113903826</v>
+        <v>6.952278526322118</v>
       </c>
       <c r="C12">
-        <v>1.79363622962444</v>
+        <v>1.928084747736307</v>
       </c>
       <c r="D12">
-        <v>0.01035046493404757</v>
+        <v>0.04841891687724598</v>
       </c>
       <c r="E12">
-        <v>0.03248303360443927</v>
+        <v>0.2280036357718345</v>
       </c>
       <c r="F12">
-        <v>4.394525012030044</v>
+        <v>4.185651721536402</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.09592266689530504</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.499620930823525</v>
+        <v>2.244963111945779</v>
       </c>
       <c r="N12">
-        <v>1.203528404296137</v>
+        <v>1.038393909636255</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.583923269123488</v>
+        <v>6.908922966637192</v>
       </c>
       <c r="C13">
-        <v>1.782602592450303</v>
+        <v>1.915980013785656</v>
       </c>
       <c r="D13">
-        <v>0.01027920651258363</v>
+        <v>0.04822204275748732</v>
       </c>
       <c r="E13">
-        <v>0.03240693976679232</v>
+        <v>0.226536359950444</v>
       </c>
       <c r="F13">
-        <v>4.372526030636976</v>
+        <v>4.160509688773686</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.09561273950021132</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.490763724366616</v>
+        <v>2.230751562605931</v>
       </c>
       <c r="N13">
-        <v>1.204174836868532</v>
+        <v>1.037501607319868</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.454108102230464</v>
+        <v>6.768141473257799</v>
       </c>
       <c r="C14">
-        <v>1.746769893163105</v>
+        <v>1.876680964018362</v>
       </c>
       <c r="D14">
-        <v>0.01004937602379208</v>
+        <v>0.04759078100089909</v>
       </c>
       <c r="E14">
-        <v>0.03216026347421597</v>
+        <v>0.2217805466010745</v>
       </c>
       <c r="F14">
-        <v>4.301231366054026</v>
+        <v>4.079016272334741</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.09460974595918259</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.461997067573023</v>
+        <v>2.184624555715487</v>
       </c>
       <c r="N14">
-        <v>1.206394818002536</v>
+        <v>1.03472929491933</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.374986621176845</v>
+        <v>6.682365480407668</v>
       </c>
       <c r="C15">
-        <v>1.724934040808876</v>
+        <v>1.852741562569463</v>
       </c>
       <c r="D15">
-        <v>0.009910507803976287</v>
+        <v>0.04721219410780719</v>
       </c>
       <c r="E15">
-        <v>0.03201028761614921</v>
+        <v>0.2188893919730219</v>
       </c>
       <c r="F15">
-        <v>4.257898645011579</v>
+        <v>4.029474076196379</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.09400122152347734</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.444465666642515</v>
+        <v>2.156534978957907</v>
       </c>
       <c r="N15">
-        <v>1.20783899212276</v>
+        <v>1.033134686982876</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.927231054148763</v>
+        <v>6.197334380960797</v>
       </c>
       <c r="C16">
-        <v>1.601416575425503</v>
+        <v>1.717438607285317</v>
       </c>
       <c r="D16">
-        <v>0.009141762109383222</v>
+        <v>0.04515827745380818</v>
       </c>
       <c r="E16">
-        <v>0.03116727900865612</v>
+        <v>0.2026341535636789</v>
       </c>
       <c r="F16">
-        <v>4.014448498561649</v>
+        <v>3.750940122287801</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.09059895078261349</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.345279884853724</v>
+        <v>1.997911733506371</v>
       </c>
       <c r="N16">
-        <v>1.217346721159657</v>
+        <v>1.025493589800405</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.657203769490877</v>
+        <v>5.905104818727864</v>
       </c>
       <c r="C17">
-        <v>1.526968330811542</v>
+        <v>1.635967994520797</v>
       </c>
       <c r="D17">
-        <v>0.008692051167017212</v>
+        <v>0.04399310957168012</v>
       </c>
       <c r="E17">
-        <v>0.03066404041393511</v>
+        <v>0.1929176839446498</v>
       </c>
       <c r="F17">
-        <v>3.869141476944975</v>
+        <v>3.584481850394951</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.08858288952323079</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.285487549257596</v>
+        <v>1.902517092860819</v>
       </c>
       <c r="N17">
-        <v>1.224215560310796</v>
+        <v>1.022050562212812</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.503455817590464</v>
+        <v>5.738794511965693</v>
       </c>
       <c r="C18">
-        <v>1.484591822355469</v>
+        <v>1.589616983809606</v>
       </c>
       <c r="D18">
-        <v>0.008440602991137247</v>
+        <v>0.04335472518570782</v>
       </c>
       <c r="E18">
-        <v>0.03037942497193136</v>
+        <v>0.1874142522064801</v>
       </c>
       <c r="F18">
-        <v>3.786935819563638</v>
+        <v>3.490220108683303</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.08744769462212076</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.251451793957344</v>
+        <v>1.848286415597101</v>
       </c>
       <c r="N18">
-        <v>1.228523623882225</v>
+        <v>1.020493775703613</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.451654994586818</v>
+        <v>5.682772809213134</v>
       </c>
       <c r="C19">
-        <v>1.470316297560032</v>
+        <v>1.574005835391006</v>
       </c>
       <c r="D19">
-        <v>0.008356632351570248</v>
+        <v>0.04314376816363819</v>
       </c>
       <c r="E19">
-        <v>0.03028386408601236</v>
+        <v>0.1855647496852697</v>
       </c>
       <c r="F19">
-        <v>3.759327652280319</v>
+        <v>3.458546439633494</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.08706736951903338</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.239985971394503</v>
+        <v>1.830028498462852</v>
       </c>
       <c r="N19">
-        <v>1.230041523006491</v>
+        <v>1.020036414534459</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.685783537368252</v>
+        <v>5.936025777739985</v>
       </c>
       <c r="C20">
-        <v>1.534846576138648</v>
+        <v>1.644586851977692</v>
       </c>
       <c r="D20">
-        <v>0.008739159279588904</v>
+        <v>0.04411378803065702</v>
       </c>
       <c r="E20">
-        <v>0.03071710462356236</v>
+        <v>0.1939430115038405</v>
       </c>
       <c r="F20">
-        <v>3.884465285634349</v>
+        <v>3.602045339002331</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.08879494061109483</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.291815080332441</v>
+        <v>1.912604583580929</v>
       </c>
       <c r="N20">
-        <v>1.223446875370144</v>
+        <v>1.022372515925682</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.492154894562987</v>
+        <v>6.809396021256873</v>
       </c>
       <c r="C21">
-        <v>1.757271057321759</v>
+        <v>1.888196093070178</v>
       </c>
       <c r="D21">
-        <v>0.01011647931685289</v>
+        <v>0.04777449363116659</v>
       </c>
       <c r="E21">
-        <v>0.03223248295796211</v>
+        <v>0.2231728187368915</v>
       </c>
       <c r="F21">
-        <v>4.322101300873953</v>
+        <v>4.102873810371108</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.094903121562254</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.470427773098052</v>
+        <v>2.198138447493903</v>
       </c>
       <c r="N21">
-        <v>1.205725020276418</v>
+        <v>1.035521794762019</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.036396683711246</v>
+        <v>7.400128504246481</v>
       </c>
       <c r="C22">
-        <v>1.907563788886762</v>
+        <v>2.053182782788042</v>
       </c>
       <c r="D22">
-        <v>0.01109979702571806</v>
+        <v>0.05052005737579179</v>
       </c>
       <c r="E22">
-        <v>0.03327224251908945</v>
+        <v>0.2432330348858827</v>
       </c>
       <c r="F22">
-        <v>4.622903215849192</v>
+        <v>4.446581015568711</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.09915163724435416</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.591055388854983</v>
+        <v>2.391932477459434</v>
       </c>
       <c r="N22">
-        <v>1.197853981453463</v>
+        <v>1.048654809224345</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.74417206898238</v>
+        <v>7.082795645221893</v>
       </c>
       <c r="C23">
-        <v>1.826847202064243</v>
+        <v>1.964530724170061</v>
       </c>
       <c r="D23">
-        <v>0.01056634500239184</v>
+        <v>0.0490185731148145</v>
       </c>
       <c r="E23">
-        <v>0.03271244937144502</v>
+        <v>0.2324282445045256</v>
       </c>
       <c r="F23">
-        <v>4.46086990875375</v>
+        <v>4.261465921601484</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.09685856806218851</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.526278923855372</v>
+        <v>2.287762781012518</v>
       </c>
       <c r="N23">
-        <v>1.20168703246722</v>
+        <v>1.041188661937866</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.672858004258046</v>
+        <v>5.922041171381238</v>
       </c>
       <c r="C24">
-        <v>1.531283508445995</v>
+        <v>1.640688760817454</v>
       </c>
       <c r="D24">
-        <v>0.008717839792340421</v>
+        <v>0.04405913194720767</v>
       </c>
       <c r="E24">
-        <v>0.03069309971116496</v>
+        <v>0.1934792053747927</v>
       </c>
       <c r="F24">
-        <v>3.877533265714533</v>
+        <v>3.594100442001718</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.08869899838866502</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.288953353216229</v>
+        <v>1.90804213527764</v>
       </c>
       <c r="N24">
-        <v>1.223793284929926</v>
+        <v>1.022225652144542</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.575770145451088</v>
+        <v>4.736162724735777</v>
       </c>
       <c r="C25">
-        <v>1.229067160562181</v>
+        <v>1.31035578271576</v>
       </c>
       <c r="D25">
-        <v>0.006992834538881887</v>
+        <v>0.03989987161521924</v>
       </c>
       <c r="E25">
-        <v>0.02869716301621317</v>
+        <v>0.1546512257470098</v>
       </c>
       <c r="F25">
-        <v>3.299703695764265</v>
+        <v>2.929632318038273</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.08081423821391098</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.04624722871209</v>
+        <v>1.522269992624146</v>
       </c>
       <c r="N25">
-        <v>1.261089376800271</v>
+        <v>1.017676184199615</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_30/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_30/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.902332153433576</v>
+        <v>1.424036728313411</v>
       </c>
       <c r="C2">
-        <v>1.078227539620741</v>
+        <v>0.3236541775035846</v>
       </c>
       <c r="D2">
-        <v>0.0375754533496675</v>
+        <v>0.04507898464445503</v>
       </c>
       <c r="E2">
-        <v>0.1279755769589102</v>
+        <v>0.06511262675786256</v>
       </c>
       <c r="F2">
-        <v>2.47451478656356</v>
+        <v>1.639132484668778</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.252383077000275</v>
+        <v>0.4641035925004218</v>
       </c>
       <c r="N2">
-        <v>1.024806871487428</v>
+        <v>1.535336609826572</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.354733989029796</v>
+        <v>1.285519530909482</v>
       </c>
       <c r="C3">
-        <v>0.9257542027927741</v>
+        <v>0.2837497512571474</v>
       </c>
       <c r="D3">
-        <v>0.03634958603243632</v>
+        <v>0.04494209123561888</v>
       </c>
       <c r="E3">
-        <v>0.1107643116811623</v>
+        <v>0.06121158810409</v>
       </c>
       <c r="F3">
-        <v>2.181968208376773</v>
+        <v>1.574188105213693</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>1.07578808942106</v>
+        <v>0.4201255521913936</v>
       </c>
       <c r="N3">
-        <v>1.034906324952502</v>
+        <v>1.541218807427242</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.025185837995252</v>
+        <v>1.201211014342164</v>
       </c>
       <c r="C4">
-        <v>0.8339497512866956</v>
+        <v>0.2593407130880507</v>
       </c>
       <c r="D4">
-        <v>0.03573912351826891</v>
+        <v>0.04488412776232309</v>
       </c>
       <c r="E4">
-        <v>0.1005344498912493</v>
+        <v>0.05886348798735952</v>
       </c>
       <c r="F4">
-        <v>2.008684620698688</v>
+        <v>1.535440081973988</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.9697736238233716</v>
+        <v>0.3933849671949758</v>
       </c>
       <c r="N4">
-        <v>1.043353875257949</v>
+        <v>1.545400875321207</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.892315530533267</v>
+        <v>1.167037541836521</v>
       </c>
       <c r="C5">
-        <v>0.7969198655493699</v>
+        <v>0.2494159201641253</v>
       </c>
       <c r="D5">
-        <v>0.03552219094273923</v>
+        <v>0.04486699105726544</v>
       </c>
       <c r="E5">
-        <v>0.09643891203085886</v>
+        <v>0.05791825864116973</v>
       </c>
       <c r="F5">
-        <v>1.939467536814718</v>
+        <v>1.519930377363167</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.9270878304391914</v>
+        <v>0.3825524560193969</v>
       </c>
       <c r="N5">
-        <v>1.04731474610989</v>
+        <v>1.547247549127789</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.870331474934403</v>
+        <v>1.161374008880784</v>
       </c>
       <c r="C6">
-        <v>0.7907920534238144</v>
+        <v>0.247769216471255</v>
       </c>
       <c r="D6">
-        <v>0.03548798586416879</v>
+        <v>0.04486453490815734</v>
       </c>
       <c r="E6">
-        <v>0.09576295275962465</v>
+        <v>0.05776200080713778</v>
       </c>
       <c r="F6">
-        <v>1.928053104757993</v>
+        <v>1.517371846065316</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.9200285542406448</v>
+        <v>0.3807575801321619</v>
       </c>
       <c r="N6">
-        <v>1.048002489690361</v>
+        <v>1.547562762902587</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.023388459792159</v>
+        <v>1.200749402902773</v>
       </c>
       <c r="C7">
-        <v>0.8334489036001287</v>
+        <v>0.2592067759426584</v>
       </c>
       <c r="D7">
-        <v>0.0357360738532897</v>
+        <v>0.04488387049749676</v>
       </c>
       <c r="E7">
-        <v>0.1004789342310382</v>
+        <v>0.05885069344601845</v>
       </c>
       <c r="F7">
-        <v>2.007745722978314</v>
+        <v>1.535229781470861</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.969195973190061</v>
+        <v>0.3932386168815967</v>
       </c>
       <c r="N7">
-        <v>1.043405251763303</v>
+        <v>1.545425204728346</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.711971053050149</v>
+        <v>1.376119883514548</v>
       </c>
       <c r="C8">
-        <v>1.025230217963838</v>
+        <v>0.309875232842586</v>
       </c>
       <c r="D8">
-        <v>0.0371207435788321</v>
+        <v>0.04502632242814997</v>
       </c>
       <c r="E8">
-        <v>0.1219635037055689</v>
+        <v>0.06375762959566345</v>
       </c>
       <c r="F8">
-        <v>2.372203309209212</v>
+        <v>1.616503545929476</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1.190933588814289</v>
+        <v>0.4488846923908909</v>
       </c>
       <c r="N8">
-        <v>1.027793371237593</v>
+        <v>1.537245818491783</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.128470555764636</v>
+        <v>1.726085186550506</v>
       </c>
       <c r="C9">
-        <v>1.419594892843691</v>
+        <v>0.4100269204001847</v>
       </c>
       <c r="D9">
-        <v>0.04116950974400879</v>
+        <v>0.04551621620696267</v>
       </c>
       <c r="E9">
-        <v>0.1673843838187707</v>
+        <v>0.07376463389199017</v>
       </c>
       <c r="F9">
-        <v>3.147353427198055</v>
+        <v>1.784988902980047</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.649642784025204</v>
+        <v>0.5601563451744198</v>
       </c>
       <c r="N9">
-        <v>1.017390668682452</v>
+        <v>1.525776409137009</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.230932870393701</v>
+        <v>1.987179816297555</v>
       </c>
       <c r="C10">
-        <v>1.726807759650171</v>
+        <v>0.4841779654802281</v>
       </c>
       <c r="D10">
-        <v>0.04529575390327523</v>
+        <v>0.04600951388986374</v>
       </c>
       <c r="E10">
-        <v>0.2037550306301199</v>
+        <v>0.08136644222486211</v>
       </c>
       <c r="F10">
-        <v>3.770144744405428</v>
+        <v>1.914560368363595</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>2.008888006270084</v>
+        <v>0.6433245139769639</v>
       </c>
       <c r="N10">
-        <v>1.025946235021166</v>
+        <v>1.520198712223134</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.751711803495994</v>
+        <v>2.106884454330782</v>
       </c>
       <c r="C11">
-        <v>1.872095289547758</v>
+        <v>0.5180544894154764</v>
       </c>
       <c r="D11">
-        <v>0.04751791149022466</v>
+        <v>0.04626399724158148</v>
       </c>
       <c r="E11">
-        <v>0.2212263892226858</v>
+        <v>0.08488230762633719</v>
       </c>
       <c r="F11">
-        <v>4.069520374038348</v>
+        <v>1.974813923900314</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>2.179243359810883</v>
+        <v>0.6814913734584849</v>
       </c>
       <c r="N11">
-        <v>1.034418294437899</v>
+        <v>1.51829365353062</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.952278526322118</v>
+        <v>2.152352063190108</v>
       </c>
       <c r="C12">
-        <v>1.928084747736307</v>
+        <v>0.530904948714749</v>
       </c>
       <c r="D12">
-        <v>0.04841891687724598</v>
+        <v>0.04636478001035016</v>
       </c>
       <c r="E12">
-        <v>0.2280036357718345</v>
+        <v>0.08622224657724331</v>
       </c>
       <c r="F12">
-        <v>4.185651721536402</v>
+        <v>1.99782288424629</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>2.244963111945779</v>
+        <v>0.6959938909048304</v>
       </c>
       <c r="N12">
-        <v>1.038393909636255</v>
+        <v>1.517664320210883</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.908922966637192</v>
+        <v>2.142553593153878</v>
       </c>
       <c r="C13">
-        <v>1.915980013785656</v>
+        <v>0.5281363656361577</v>
       </c>
       <c r="D13">
-        <v>0.04822204275748732</v>
+        <v>0.04634287680993765</v>
       </c>
       <c r="E13">
-        <v>0.226536359950444</v>
+        <v>0.08593328213708418</v>
       </c>
       <c r="F13">
-        <v>4.160509688773686</v>
+        <v>1.992858882369205</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>2.230751562605931</v>
+        <v>0.6928682838775302</v>
       </c>
       <c r="N13">
-        <v>1.037501607319868</v>
+        <v>1.517795744980944</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.768141473257799</v>
+        <v>2.11062231097776</v>
       </c>
       <c r="C14">
-        <v>1.876680964018362</v>
+        <v>0.5191112527257928</v>
       </c>
       <c r="D14">
-        <v>0.04759078100089909</v>
+        <v>0.04627219968740803</v>
       </c>
       <c r="E14">
-        <v>0.2217805466010745</v>
+        <v>0.08499237226350687</v>
       </c>
       <c r="F14">
-        <v>4.079016272334741</v>
+        <v>1.976703010314253</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>2.184624555715487</v>
+        <v>0.6826835016323685</v>
       </c>
       <c r="N14">
-        <v>1.03472929491933</v>
+        <v>1.518240026001337</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.682365480407668</v>
+        <v>2.091081582217896</v>
       </c>
       <c r="C15">
-        <v>1.852741562569463</v>
+        <v>0.5135860355192108</v>
       </c>
       <c r="D15">
-        <v>0.04721219410780719</v>
+        <v>0.04622948562904838</v>
       </c>
       <c r="E15">
-        <v>0.2188893919730219</v>
+        <v>0.08441715968761798</v>
       </c>
       <c r="F15">
-        <v>4.029474076196379</v>
+        <v>1.96683222068566</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>2.156534978957907</v>
+        <v>0.6764515312012946</v>
       </c>
       <c r="N15">
-        <v>1.033134686982876</v>
+        <v>1.518524185800914</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.197334380960797</v>
+        <v>1.979375929424407</v>
       </c>
       <c r="C16">
-        <v>1.717438607285317</v>
+        <v>0.4819670823924866</v>
       </c>
       <c r="D16">
-        <v>0.04515827745380818</v>
+        <v>0.04599349574513667</v>
       </c>
       <c r="E16">
-        <v>0.2026341535636789</v>
+        <v>0.08113785584105671</v>
       </c>
       <c r="F16">
-        <v>3.750940122287801</v>
+        <v>1.910649353383747</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.997911733506371</v>
+        <v>0.6408370647884993</v>
       </c>
       <c r="N16">
-        <v>1.025493589800405</v>
+        <v>1.52033603317679</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.905104818727864</v>
+        <v>1.911089589105586</v>
       </c>
       <c r="C17">
-        <v>1.635967994520797</v>
+        <v>0.4626079122073179</v>
       </c>
       <c r="D17">
-        <v>0.04399310957168012</v>
+        <v>0.04585649130051905</v>
       </c>
       <c r="E17">
-        <v>0.1929176839446498</v>
+        <v>0.07914108093479655</v>
       </c>
       <c r="F17">
-        <v>3.584481850394951</v>
+        <v>1.876521370577109</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.902517092860819</v>
+        <v>0.6190752488235631</v>
       </c>
       <c r="N17">
-        <v>1.022050562212812</v>
+        <v>1.521610295426342</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.738794511965693</v>
+        <v>1.871900506117413</v>
       </c>
       <c r="C18">
-        <v>1.589616983809606</v>
+        <v>0.4514865818217686</v>
       </c>
       <c r="D18">
-        <v>0.04335472518570782</v>
+        <v>0.04578051574333131</v>
       </c>
       <c r="E18">
-        <v>0.1874142522064801</v>
+        <v>0.07799801065649348</v>
       </c>
       <c r="F18">
-        <v>3.490220108683303</v>
+        <v>1.857015012658849</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.848286415597101</v>
+        <v>0.6065896944467255</v>
       </c>
       <c r="N18">
-        <v>1.020493775703613</v>
+        <v>1.522402659140653</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.682772809213134</v>
+        <v>1.858646645007411</v>
       </c>
       <c r="C19">
-        <v>1.574005835391006</v>
+        <v>0.4477233780577876</v>
       </c>
       <c r="D19">
-        <v>0.04314376816363819</v>
+        <v>0.04575527433536308</v>
       </c>
       <c r="E19">
-        <v>0.1855647496852697</v>
+        <v>0.07761191034518333</v>
       </c>
       <c r="F19">
-        <v>3.458546439633494</v>
+        <v>1.850431533835945</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.830028498462852</v>
+        <v>0.60236762099629</v>
       </c>
       <c r="N19">
-        <v>1.020036414534459</v>
+        <v>1.522681114199315</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.936025777739985</v>
+        <v>1.918349709972404</v>
       </c>
       <c r="C20">
-        <v>1.644586851977692</v>
+        <v>0.4646673167827657</v>
       </c>
       <c r="D20">
-        <v>0.04411378803065702</v>
+        <v>0.04587078255372035</v>
       </c>
       <c r="E20">
-        <v>0.1939430115038405</v>
+        <v>0.07935307809233905</v>
       </c>
       <c r="F20">
-        <v>3.602045339002331</v>
+        <v>1.880141579567436</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.912604583580929</v>
+        <v>0.6213885835580868</v>
       </c>
       <c r="N20">
-        <v>1.022372515925682</v>
+        <v>1.52146848774494</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.809396021256873</v>
+        <v>2.119997522321114</v>
       </c>
       <c r="C21">
-        <v>1.888196093070178</v>
+        <v>0.5217615351793938</v>
       </c>
       <c r="D21">
-        <v>0.04777449363116659</v>
+        <v>0.04629283871241796</v>
       </c>
       <c r="E21">
-        <v>0.2231728187368915</v>
+        <v>0.08526850604737746</v>
       </c>
       <c r="F21">
-        <v>4.102873810371108</v>
+        <v>1.98144313385751</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>2.198138447493903</v>
+        <v>0.6856736609248486</v>
       </c>
       <c r="N21">
-        <v>1.035521794762019</v>
+        <v>1.518107021846191</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.400128504246481</v>
+        <v>2.252592724921442</v>
       </c>
       <c r="C22">
-        <v>2.053182782788042</v>
+        <v>0.5592056774824528</v>
       </c>
       <c r="D22">
-        <v>0.05052005737579179</v>
+        <v>0.0465944562995162</v>
       </c>
       <c r="E22">
-        <v>0.2432330348858827</v>
+        <v>0.089184576562225</v>
       </c>
       <c r="F22">
-        <v>4.446581015568711</v>
+        <v>2.048771900394712</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>2.391932477459434</v>
+        <v>0.7279773082383656</v>
       </c>
       <c r="N22">
-        <v>1.048654809224345</v>
+        <v>1.516447316777899</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.082795645221893</v>
+        <v>2.181748969656098</v>
       </c>
       <c r="C23">
-        <v>1.964530724170061</v>
+        <v>0.539208714908284</v>
       </c>
       <c r="D23">
-        <v>0.0490185731148145</v>
+        <v>0.04643108834294196</v>
       </c>
       <c r="E23">
-        <v>0.2324282445045256</v>
+        <v>0.08708983740776688</v>
       </c>
       <c r="F23">
-        <v>4.261465921601484</v>
+        <v>2.012733320925349</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>2.287762781012518</v>
+        <v>0.7053720051119825</v>
       </c>
       <c r="N23">
-        <v>1.041188661937866</v>
+        <v>1.517283593028381</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.922041171381238</v>
+        <v>1.915067192714616</v>
       </c>
       <c r="C24">
-        <v>1.640688760817454</v>
+        <v>0.4637362335532202</v>
       </c>
       <c r="D24">
-        <v>0.04405913194720767</v>
+        <v>0.04586431279417269</v>
       </c>
       <c r="E24">
-        <v>0.1934792053747927</v>
+        <v>0.07925721892690518</v>
       </c>
       <c r="F24">
-        <v>3.594100442001718</v>
+        <v>1.878504527427594</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.90804213527764</v>
+        <v>0.6203426452986349</v>
       </c>
       <c r="N24">
-        <v>1.022225652144542</v>
+        <v>1.521532412904023</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.736162724735777</v>
+        <v>1.630732611316546</v>
       </c>
       <c r="C25">
-        <v>1.31035578271576</v>
+        <v>0.3828396058991643</v>
       </c>
       <c r="D25">
-        <v>0.03989987161521924</v>
+        <v>0.04536063297808823</v>
       </c>
       <c r="E25">
-        <v>0.1546512257470098</v>
+        <v>0.07101474698387733</v>
       </c>
       <c r="F25">
-        <v>2.929632318038273</v>
+        <v>1.738410230205346</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.522269992624146</v>
+        <v>0.5298133770013322</v>
       </c>
       <c r="N25">
-        <v>1.017676184199615</v>
+        <v>1.528383477871657</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_30/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_30/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.424036728313411</v>
+        <v>3.902332153433747</v>
       </c>
       <c r="C2">
-        <v>0.3236541775035846</v>
+        <v>1.078227539620741</v>
       </c>
       <c r="D2">
-        <v>0.04507898464445503</v>
+        <v>0.03757545334955381</v>
       </c>
       <c r="E2">
-        <v>0.06511262675786256</v>
+        <v>0.1279755769589741</v>
       </c>
       <c r="F2">
-        <v>1.639132484668778</v>
+        <v>2.474514786563503</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4641035925004218</v>
+        <v>1.252383077000289</v>
       </c>
       <c r="N2">
-        <v>1.535336609826572</v>
+        <v>1.024806871487442</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.285519530909482</v>
+        <v>3.354733989029683</v>
       </c>
       <c r="C3">
-        <v>0.2837497512571474</v>
+        <v>0.9257542027928878</v>
       </c>
       <c r="D3">
-        <v>0.04494209123561888</v>
+        <v>0.03634958603243632</v>
       </c>
       <c r="E3">
-        <v>0.06121158810409</v>
+        <v>0.1107643116811872</v>
       </c>
       <c r="F3">
-        <v>1.574188105213693</v>
+        <v>2.181968208376773</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4201255521913936</v>
+        <v>1.075788089421081</v>
       </c>
       <c r="N3">
-        <v>1.541218807427242</v>
+        <v>1.034906324952416</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.201211014342164</v>
+        <v>3.025185837995195</v>
       </c>
       <c r="C4">
-        <v>0.2593407130880507</v>
+        <v>0.833949751286724</v>
       </c>
       <c r="D4">
-        <v>0.04488412776232309</v>
+        <v>0.03573912351816233</v>
       </c>
       <c r="E4">
-        <v>0.05886348798735952</v>
+        <v>0.1005344498912493</v>
       </c>
       <c r="F4">
-        <v>1.535440081973988</v>
+        <v>2.008684620698688</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3933849671949758</v>
+        <v>0.9697736238233645</v>
       </c>
       <c r="N4">
-        <v>1.545400875321207</v>
+        <v>1.043353875258006</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.167037541836521</v>
+        <v>2.892315530533097</v>
       </c>
       <c r="C5">
-        <v>0.2494159201641253</v>
+        <v>0.7969198655491994</v>
       </c>
       <c r="D5">
-        <v>0.04486699105726544</v>
+        <v>0.03552219094252607</v>
       </c>
       <c r="E5">
-        <v>0.05791825864116973</v>
+        <v>0.09643891203085175</v>
       </c>
       <c r="F5">
-        <v>1.519930377363167</v>
+        <v>1.939467536814718</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3825524560193969</v>
+        <v>0.9270878304391985</v>
       </c>
       <c r="N5">
-        <v>1.547247549127789</v>
+        <v>1.047314746109834</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.161374008880784</v>
+        <v>2.870331474934574</v>
       </c>
       <c r="C6">
-        <v>0.247769216471255</v>
+        <v>0.7907920534236439</v>
       </c>
       <c r="D6">
-        <v>0.04486453490815734</v>
+        <v>0.03548798586428248</v>
       </c>
       <c r="E6">
-        <v>0.05776200080713778</v>
+        <v>0.09576295275962821</v>
       </c>
       <c r="F6">
-        <v>1.517371846065316</v>
+        <v>1.928053104757964</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3807575801321619</v>
+        <v>0.9200285542406448</v>
       </c>
       <c r="N6">
-        <v>1.547562762902587</v>
+        <v>1.048002489690347</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.200749402902773</v>
+        <v>3.023388459792159</v>
       </c>
       <c r="C7">
-        <v>0.2592067759426584</v>
+        <v>0.8334489035997024</v>
       </c>
       <c r="D7">
-        <v>0.04488387049749676</v>
+        <v>0.03573607385305522</v>
       </c>
       <c r="E7">
-        <v>0.05885069344601845</v>
+        <v>0.1004789342310382</v>
       </c>
       <c r="F7">
-        <v>1.535229781470861</v>
+        <v>2.007745722978328</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3932386168815967</v>
+        <v>0.969195973190061</v>
       </c>
       <c r="N7">
-        <v>1.545425204728346</v>
+        <v>1.043405251763375</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.376119883514548</v>
+        <v>3.711971053050206</v>
       </c>
       <c r="C8">
-        <v>0.309875232842586</v>
+        <v>1.025230217963923</v>
       </c>
       <c r="D8">
-        <v>0.04502632242814997</v>
+        <v>0.037120743578825</v>
       </c>
       <c r="E8">
-        <v>0.06375762959566345</v>
+        <v>0.1219635037055085</v>
       </c>
       <c r="F8">
-        <v>1.616503545929476</v>
+        <v>2.372203309209212</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.4488846923908909</v>
+        <v>1.190933588814289</v>
       </c>
       <c r="N8">
-        <v>1.537245818491783</v>
+        <v>1.027793371237593</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.726085186550506</v>
+        <v>5.128470555764693</v>
       </c>
       <c r="C9">
-        <v>0.4100269204001847</v>
+        <v>1.41959489284352</v>
       </c>
       <c r="D9">
-        <v>0.04551621620696267</v>
+        <v>0.0411695097440159</v>
       </c>
       <c r="E9">
-        <v>0.07376463389199017</v>
+        <v>0.1673843838188063</v>
       </c>
       <c r="F9">
-        <v>1.784988902980047</v>
+        <v>3.147353427198027</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.5601563451744198</v>
+        <v>1.649642784025232</v>
       </c>
       <c r="N9">
-        <v>1.525776409137009</v>
+        <v>1.017390668682452</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.987179816297555</v>
+        <v>6.230932870393531</v>
       </c>
       <c r="C10">
-        <v>0.4841779654802281</v>
+        <v>1.726807759649944</v>
       </c>
       <c r="D10">
-        <v>0.04600951388986374</v>
+        <v>0.04529575390328233</v>
       </c>
       <c r="E10">
-        <v>0.08136644222486211</v>
+        <v>0.2037550306301625</v>
       </c>
       <c r="F10">
-        <v>1.914560368363595</v>
+        <v>3.7701447444054</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.6433245139769639</v>
+        <v>2.008888006270084</v>
       </c>
       <c r="N10">
-        <v>1.520198712223134</v>
+        <v>1.025946235021166</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.106884454330782</v>
+        <v>6.751711803495937</v>
       </c>
       <c r="C11">
-        <v>0.5180544894154764</v>
+        <v>1.872095289547815</v>
       </c>
       <c r="D11">
-        <v>0.04626399724158148</v>
+        <v>0.04751791149002571</v>
       </c>
       <c r="E11">
-        <v>0.08488230762633719</v>
+        <v>0.2212263892226645</v>
       </c>
       <c r="F11">
-        <v>1.974813923900314</v>
+        <v>4.069520374038319</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.6814913734584849</v>
+        <v>2.179243359810911</v>
       </c>
       <c r="N11">
-        <v>1.51829365353062</v>
+        <v>1.03441829443797</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.152352063190108</v>
+        <v>6.952278526322118</v>
       </c>
       <c r="C12">
-        <v>0.530904948714749</v>
+        <v>1.928084747736364</v>
       </c>
       <c r="D12">
-        <v>0.04636478001035016</v>
+        <v>0.0484189168770186</v>
       </c>
       <c r="E12">
-        <v>0.08622224657724331</v>
+        <v>0.2280036357717421</v>
       </c>
       <c r="F12">
-        <v>1.99782288424629</v>
+        <v>4.185651721536402</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.6959938909048304</v>
+        <v>2.244963111945765</v>
       </c>
       <c r="N12">
-        <v>1.517664320210883</v>
+        <v>1.038393909636312</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.142553593153878</v>
+        <v>6.908922966637249</v>
       </c>
       <c r="C13">
-        <v>0.5281363656361577</v>
+        <v>1.915980013785941</v>
       </c>
       <c r="D13">
-        <v>0.04634287680993765</v>
+        <v>0.04822204275748732</v>
       </c>
       <c r="E13">
-        <v>0.08593328213708418</v>
+        <v>0.2265363599503658</v>
       </c>
       <c r="F13">
-        <v>1.992858882369205</v>
+        <v>4.160509688773715</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.6928682838775302</v>
+        <v>2.230751562605917</v>
       </c>
       <c r="N13">
-        <v>1.517795744980944</v>
+        <v>1.037501607319925</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.11062231097776</v>
+        <v>6.768141473257856</v>
       </c>
       <c r="C14">
-        <v>0.5191112527257928</v>
+        <v>1.876680964018135</v>
       </c>
       <c r="D14">
-        <v>0.04627219968740803</v>
+        <v>0.04759078100067882</v>
       </c>
       <c r="E14">
-        <v>0.08499237226350687</v>
+        <v>0.2217805466010745</v>
       </c>
       <c r="F14">
-        <v>1.976703010314253</v>
+        <v>4.079016272334741</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.6826835016323685</v>
+        <v>2.184624555715487</v>
       </c>
       <c r="N14">
-        <v>1.518240026001337</v>
+        <v>1.034729294919273</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.091081582217896</v>
+        <v>6.682365480407555</v>
       </c>
       <c r="C15">
-        <v>0.5135860355192108</v>
+        <v>1.852741562569179</v>
       </c>
       <c r="D15">
-        <v>0.04622948562904838</v>
+        <v>0.04721219410795641</v>
       </c>
       <c r="E15">
-        <v>0.08441715968761798</v>
+        <v>0.2188893919730006</v>
       </c>
       <c r="F15">
-        <v>1.96683222068566</v>
+        <v>4.029474076196351</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.6764515312012946</v>
+        <v>2.156534978957922</v>
       </c>
       <c r="N15">
-        <v>1.518524185800914</v>
+        <v>1.03313468698282</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.979375929424407</v>
+        <v>6.197334380960797</v>
       </c>
       <c r="C16">
-        <v>0.4819670823924866</v>
+        <v>1.717438607285374</v>
       </c>
       <c r="D16">
-        <v>0.04599349574513667</v>
+        <v>0.04515827745381529</v>
       </c>
       <c r="E16">
-        <v>0.08113785584105671</v>
+        <v>0.2026341535636718</v>
       </c>
       <c r="F16">
-        <v>1.910649353383747</v>
+        <v>3.75094012228783</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.6408370647884993</v>
+        <v>1.997911733506385</v>
       </c>
       <c r="N16">
-        <v>1.52033603317679</v>
+        <v>1.025493589800377</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.911089589105586</v>
+        <v>5.905104818727807</v>
       </c>
       <c r="C17">
-        <v>0.4626079122073179</v>
+        <v>1.635967994520513</v>
       </c>
       <c r="D17">
-        <v>0.04585649130051905</v>
+        <v>0.04399310957139591</v>
       </c>
       <c r="E17">
-        <v>0.07914108093479655</v>
+        <v>0.1929176839446853</v>
       </c>
       <c r="F17">
-        <v>1.876521370577109</v>
+        <v>3.58448185039498</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.6190752488235631</v>
+        <v>1.902517092860791</v>
       </c>
       <c r="N17">
-        <v>1.521610295426342</v>
+        <v>1.022050562212812</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.871900506117413</v>
+        <v>5.738794511965807</v>
       </c>
       <c r="C18">
-        <v>0.4514865818217686</v>
+        <v>1.589616983809378</v>
       </c>
       <c r="D18">
-        <v>0.04578051574333131</v>
+        <v>0.04335472518571493</v>
       </c>
       <c r="E18">
-        <v>0.07799801065649348</v>
+        <v>0.1874142522064801</v>
       </c>
       <c r="F18">
-        <v>1.857015012658849</v>
+        <v>3.490220108683303</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.6065896944467255</v>
+        <v>1.848286415597116</v>
       </c>
       <c r="N18">
-        <v>1.522402659140653</v>
+        <v>1.020493775703628</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.858646645007411</v>
+        <v>5.682772809213191</v>
       </c>
       <c r="C19">
-        <v>0.4477233780577876</v>
+        <v>1.57400583539129</v>
       </c>
       <c r="D19">
-        <v>0.04575527433536308</v>
+        <v>0.0431437681635245</v>
       </c>
       <c r="E19">
-        <v>0.07761191034518333</v>
+        <v>0.1855647496852768</v>
       </c>
       <c r="F19">
-        <v>1.850431533835945</v>
+        <v>3.458546439633466</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.60236762099629</v>
+        <v>1.830028498462838</v>
       </c>
       <c r="N19">
-        <v>1.522681114199315</v>
+        <v>1.020036414534403</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.918349709972404</v>
+        <v>5.936025777740042</v>
       </c>
       <c r="C20">
-        <v>0.4646673167827657</v>
+        <v>1.644586851977522</v>
       </c>
       <c r="D20">
-        <v>0.04587078255372035</v>
+        <v>0.04411378803002464</v>
       </c>
       <c r="E20">
-        <v>0.07935307809233905</v>
+        <v>0.1939430115038618</v>
       </c>
       <c r="F20">
-        <v>1.880141579567436</v>
+        <v>3.602045339002331</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.6213885835580868</v>
+        <v>1.912604583580958</v>
       </c>
       <c r="N20">
-        <v>1.52146848774494</v>
+        <v>1.022372515925596</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.119997522321114</v>
+        <v>6.809396021256873</v>
       </c>
       <c r="C21">
-        <v>0.5217615351793938</v>
+        <v>1.888196093070462</v>
       </c>
       <c r="D21">
-        <v>0.04629283871241796</v>
+        <v>0.04777449363137265</v>
       </c>
       <c r="E21">
-        <v>0.08526850604737746</v>
+        <v>0.2231728187368347</v>
       </c>
       <c r="F21">
-        <v>1.98144313385751</v>
+        <v>4.102873810371136</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.6856736609248486</v>
+        <v>2.198138447493889</v>
       </c>
       <c r="N21">
-        <v>1.518107021846191</v>
+        <v>1.035521794762005</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.252592724921442</v>
+        <v>7.400128504246595</v>
       </c>
       <c r="C22">
-        <v>0.5592056774824528</v>
+        <v>2.053182782788497</v>
       </c>
       <c r="D22">
-        <v>0.0465944562995162</v>
+        <v>0.05052005737614707</v>
       </c>
       <c r="E22">
-        <v>0.089184576562225</v>
+        <v>0.2432330348859395</v>
       </c>
       <c r="F22">
-        <v>2.048771900394712</v>
+        <v>4.446581015568768</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.7279773082383656</v>
+        <v>2.391932477459434</v>
       </c>
       <c r="N22">
-        <v>1.516447316777899</v>
+        <v>1.048654809224345</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.181748969656098</v>
+        <v>7.08279564522212</v>
       </c>
       <c r="C23">
-        <v>0.539208714908284</v>
+        <v>1.964530724170061</v>
       </c>
       <c r="D23">
-        <v>0.04643108834294196</v>
+        <v>0.04901857311514846</v>
       </c>
       <c r="E23">
-        <v>0.08708983740776688</v>
+        <v>0.2324282445045966</v>
       </c>
       <c r="F23">
-        <v>2.012733320925349</v>
+        <v>4.26146592160157</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.7053720051119825</v>
+        <v>2.28776278101256</v>
       </c>
       <c r="N23">
-        <v>1.517283593028381</v>
+        <v>1.041188661937909</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.915067192714616</v>
+        <v>5.922041171381068</v>
       </c>
       <c r="C24">
-        <v>0.4637362335532202</v>
+        <v>1.640688760817739</v>
       </c>
       <c r="D24">
-        <v>0.04586431279417269</v>
+        <v>0.04405913194731426</v>
       </c>
       <c r="E24">
-        <v>0.07925721892690518</v>
+        <v>0.1934792053748708</v>
       </c>
       <c r="F24">
-        <v>1.878504527427594</v>
+        <v>3.594100442001718</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.6203426452986349</v>
+        <v>1.908042135277611</v>
       </c>
       <c r="N24">
-        <v>1.521532412904023</v>
+        <v>1.022225652144542</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.630732611316546</v>
+        <v>4.736162724735834</v>
       </c>
       <c r="C25">
-        <v>0.3828396058991643</v>
+        <v>1.310355782715476</v>
       </c>
       <c r="D25">
-        <v>0.04536063297808823</v>
+        <v>0.03989987161521213</v>
       </c>
       <c r="E25">
-        <v>0.07101474698387733</v>
+        <v>0.154651225746953</v>
       </c>
       <c r="F25">
-        <v>1.738410230205346</v>
+        <v>2.929632318038273</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.5298133770013322</v>
+        <v>1.522269992624146</v>
       </c>
       <c r="N25">
-        <v>1.528383477871657</v>
+        <v>1.017676184199658</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_30/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_30/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.902332153433747</v>
+        <v>2.9968887100747</v>
       </c>
       <c r="C2">
-        <v>1.078227539620741</v>
+        <v>1.182669704744626</v>
       </c>
       <c r="D2">
-        <v>0.03757545334955381</v>
+        <v>0.0129082760155832</v>
       </c>
       <c r="E2">
-        <v>0.1279755769589741</v>
+        <v>0.04557972140984035</v>
       </c>
       <c r="F2">
-        <v>2.474514786563503</v>
+        <v>2.246918100950992</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.00166999025492709</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.0007939189846943862</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.9644144872880247</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.09341434991400277</v>
       </c>
       <c r="M2">
-        <v>1.252383077000289</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1.024806871487442</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.8314651064634475</v>
+      </c>
+      <c r="P2">
+        <v>1.034591673912693</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.354733989029683</v>
+        <v>2.609275583677857</v>
       </c>
       <c r="C3">
-        <v>0.9257542027928878</v>
+        <v>1.027812143430538</v>
       </c>
       <c r="D3">
-        <v>0.03634958603243632</v>
+        <v>0.01140961858917322</v>
       </c>
       <c r="E3">
-        <v>0.1107643116811872</v>
+        <v>0.04055991811116755</v>
       </c>
       <c r="F3">
-        <v>2.181968208376773</v>
+        <v>2.057642189004383</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
+        <v>0.003820390175247046</v>
+      </c>
+      <c r="I3">
+        <v>0.002003879855049906</v>
+      </c>
+      <c r="J3">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.9020241767566191</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.08323124749417943</v>
       </c>
       <c r="M3">
-        <v>1.075788089421081</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.034906324952416</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.7267360858810221</v>
+      </c>
+      <c r="P3">
+        <v>1.061418197340295</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.025185837995195</v>
+        <v>2.371367589252316</v>
       </c>
       <c r="C4">
-        <v>0.833949751286724</v>
+        <v>0.9337648520109951</v>
       </c>
       <c r="D4">
-        <v>0.03573912351816233</v>
+        <v>0.01052576313701259</v>
       </c>
       <c r="E4">
-        <v>0.1005344498912493</v>
+        <v>0.03751996137203584</v>
       </c>
       <c r="F4">
-        <v>2.008684620698688</v>
+        <v>1.942393359104727</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
+        <v>0.005635418580113516</v>
+      </c>
+      <c r="I4">
+        <v>0.003255175983809977</v>
+      </c>
+      <c r="J4">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.8639847455478247</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.07702233189086982</v>
       </c>
       <c r="M4">
-        <v>0.9697736238233645</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1.043353875258006</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.6626231242546794</v>
+      </c>
+      <c r="P4">
+        <v>1.078168096719189</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.892315530533097</v>
+        <v>2.27236293039573</v>
       </c>
       <c r="C5">
-        <v>0.7969198655491994</v>
+        <v>0.8961862554275228</v>
       </c>
       <c r="D5">
-        <v>0.03552219094252607</v>
+        <v>0.01021007547977959</v>
       </c>
       <c r="E5">
-        <v>0.09643891203085175</v>
+        <v>0.03630996312265289</v>
       </c>
       <c r="F5">
-        <v>1.939467536814718</v>
+        <v>1.8937099771302</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
+        <v>0.00649761457758119</v>
+      </c>
+      <c r="I5">
+        <v>0.003964026781382302</v>
+      </c>
+      <c r="J5">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.8472975609010902</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.07447762545067249</v>
       </c>
       <c r="M5">
-        <v>0.9270878304391985</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>1.047314746109834</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.6363931103751383</v>
+      </c>
+      <c r="P5">
+        <v>1.0843462145233</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.870331474934574</v>
+        <v>2.253424373280154</v>
       </c>
       <c r="C6">
-        <v>0.7907920534236439</v>
+        <v>0.8905926586227793</v>
       </c>
       <c r="D6">
-        <v>0.03548798586428248</v>
+        <v>0.01020306481486344</v>
       </c>
       <c r="E6">
-        <v>0.09576295275962821</v>
+        <v>0.03613445906543689</v>
       </c>
       <c r="F6">
-        <v>1.928053104757964</v>
+        <v>1.883282075486065</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
+        <v>0.006653976820805652</v>
+      </c>
+      <c r="I6">
+        <v>0.0041926563518766</v>
+      </c>
+      <c r="J6">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.8430132821553897</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.07402872627086765</v>
       </c>
       <c r="M6">
-        <v>0.9200285542406448</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>1.048002489690347</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.63186881553451</v>
+      </c>
+      <c r="P6">
+        <v>1.084508153987734</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.023388459792159</v>
+        <v>2.363183102006587</v>
       </c>
       <c r="C7">
-        <v>0.8334489035997024</v>
+        <v>0.9349903244817312</v>
       </c>
       <c r="D7">
-        <v>0.03573607385305522</v>
+        <v>0.01064404497005889</v>
       </c>
       <c r="E7">
-        <v>0.1004789342310382</v>
+        <v>0.037571839333431</v>
       </c>
       <c r="F7">
-        <v>2.007745722978328</v>
+        <v>1.935291210750975</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
+        <v>0.005662098724677822</v>
+      </c>
+      <c r="I7">
+        <v>0.003528787853984028</v>
+      </c>
+      <c r="J7">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.8596109591704675</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.07691461289012125</v>
       </c>
       <c r="M7">
-        <v>0.969195973190061</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>1.043405251763375</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.6618007032971747</v>
+      </c>
+      <c r="P7">
+        <v>1.075894988647772</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.711971053050206</v>
+        <v>2.85400995012327</v>
       </c>
       <c r="C8">
-        <v>1.025230217963923</v>
+        <v>1.131349742283646</v>
       </c>
       <c r="D8">
-        <v>0.037120743578825</v>
+        <v>0.01254610963844094</v>
       </c>
       <c r="E8">
-        <v>0.1219635037055085</v>
+        <v>0.04392943299854579</v>
       </c>
       <c r="F8">
-        <v>2.372203309209212</v>
+        <v>2.172859972869915</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
+        <v>0.002317253130270203</v>
+      </c>
+      <c r="I8">
+        <v>0.001403825005874992</v>
+      </c>
+      <c r="J8">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.937325139604674</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.08979252290690809</v>
       </c>
       <c r="M8">
-        <v>1.190933588814289</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>1.027793371237593</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.7946760150754812</v>
+      </c>
+      <c r="P8">
+        <v>1.040732498634405</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.128470555764693</v>
+        <v>3.831535670435755</v>
       </c>
       <c r="C9">
-        <v>1.41959489284352</v>
+        <v>1.523017313058062</v>
       </c>
       <c r="D9">
-        <v>0.0411695097440159</v>
+        <v>0.01639932354759388</v>
       </c>
       <c r="E9">
-        <v>0.1673843838188063</v>
+        <v>0.05671333971463177</v>
       </c>
       <c r="F9">
-        <v>3.147353427198027</v>
+        <v>2.659777024133703</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
+        <v>4.641868545096628E-06</v>
+      </c>
+      <c r="I9">
+        <v>0.001277266252055043</v>
+      </c>
+      <c r="J9">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.099948166195276</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1157026455615195</v>
       </c>
       <c r="M9">
-        <v>1.649642784025232</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>1.017390668682452</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>1.058214965511851</v>
+      </c>
+      <c r="P9">
+        <v>0.9783358719239672</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.230932870393531</v>
+        <v>4.529183140432735</v>
       </c>
       <c r="C10">
-        <v>1.726807759649944</v>
+        <v>1.804326840822682</v>
       </c>
       <c r="D10">
-        <v>0.04529575390328233</v>
+        <v>0.0190749516814126</v>
       </c>
       <c r="E10">
-        <v>0.2037550306301625</v>
+        <v>0.06372967632634463</v>
       </c>
       <c r="F10">
-        <v>3.7701447444054</v>
+        <v>2.980333821786473</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
+        <v>0.001460728095120878</v>
+      </c>
+      <c r="I10">
+        <v>0.004455604335899643</v>
+      </c>
+      <c r="J10">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.203431190352134</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.128922210652938</v>
       </c>
       <c r="M10">
-        <v>2.008888006270084</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>1.025946235021166</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>1.234457768136423</v>
+      </c>
+      <c r="P10">
+        <v>0.9242059895108312</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.751711803495937</v>
+        <v>4.648604695655081</v>
       </c>
       <c r="C11">
-        <v>1.872095289547815</v>
+        <v>1.801847742241705</v>
       </c>
       <c r="D11">
-        <v>0.04751791149002571</v>
+        <v>0.01692414912221274</v>
       </c>
       <c r="E11">
-        <v>0.2212263892226645</v>
+        <v>0.04752068120957098</v>
       </c>
       <c r="F11">
-        <v>4.069520374038319</v>
+        <v>2.756225194954226</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
+        <v>0.02015842049436856</v>
+      </c>
+      <c r="I11">
+        <v>0.006032391273416593</v>
+      </c>
+      <c r="J11">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.103794021104079</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.09132740921175753</v>
       </c>
       <c r="M11">
-        <v>2.179243359810911</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>1.03441829443797</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>1.149031527015381</v>
+      </c>
+      <c r="P11">
+        <v>0.8287758955861158</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.952278526322118</v>
+        <v>4.610232404967178</v>
       </c>
       <c r="C12">
-        <v>1.928084747736364</v>
+        <v>1.736513622615291</v>
       </c>
       <c r="D12">
-        <v>0.0484189168770186</v>
+        <v>0.01549428231583239</v>
       </c>
       <c r="E12">
-        <v>0.2280036357717421</v>
+        <v>0.03911092146207418</v>
       </c>
       <c r="F12">
-        <v>4.185651721536402</v>
+        <v>2.515990857715551</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.02672462365057982</v>
+        <v>0.05861375503558719</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.006093801051568093</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.007437115948555</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.07263423056859608</v>
       </c>
       <c r="M12">
-        <v>2.244963111945765</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>1.038393909636312</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>1.04362739954653</v>
+      </c>
+      <c r="P12">
+        <v>0.775636501693576</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.908922966637249</v>
+        <v>4.437399341582534</v>
       </c>
       <c r="C13">
-        <v>1.915980013785941</v>
+        <v>1.622222713632823</v>
       </c>
       <c r="D13">
-        <v>0.04822204275748732</v>
+        <v>0.01466721052427844</v>
       </c>
       <c r="E13">
-        <v>0.2265363599503658</v>
+        <v>0.03624214526728675</v>
       </c>
       <c r="F13">
-        <v>4.160509688773715</v>
+        <v>2.240452190550073</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
+        <v>0.1138933132016007</v>
+      </c>
+      <c r="I13">
+        <v>0.005274391114379995</v>
+      </c>
+      <c r="J13">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.901772820343723</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.06717401858042926</v>
       </c>
       <c r="M13">
-        <v>2.230751562605917</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>1.037501607319925</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.9170273691406905</v>
+      </c>
+      <c r="P13">
+        <v>0.7476145560442689</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.768141473257856</v>
+        <v>4.254568875861139</v>
       </c>
       <c r="C14">
-        <v>1.876680964018135</v>
+        <v>1.521531329680386</v>
       </c>
       <c r="D14">
-        <v>0.04759078100067882</v>
+        <v>0.01450221641943017</v>
       </c>
       <c r="E14">
-        <v>0.2217805466010745</v>
+        <v>0.03762581167423118</v>
       </c>
       <c r="F14">
-        <v>4.079016272334741</v>
+        <v>2.032993145732419</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
+        <v>0.1628820206675812</v>
+      </c>
+      <c r="I14">
+        <v>0.004468323862987233</v>
+      </c>
+      <c r="J14">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.8237169332234515</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.07138291724044876</v>
       </c>
       <c r="M14">
-        <v>2.184624555715487</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>1.034729294919273</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.8202169348572639</v>
+      </c>
+      <c r="P14">
+        <v>0.7405594568859328</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.682365480407555</v>
+        <v>4.179395793318918</v>
       </c>
       <c r="C15">
-        <v>1.852741562569179</v>
+        <v>1.487565617501218</v>
       </c>
       <c r="D15">
-        <v>0.04721219410795641</v>
+        <v>0.01442777338558177</v>
       </c>
       <c r="E15">
-        <v>0.2188893919730006</v>
+        <v>0.03822015305915549</v>
       </c>
       <c r="F15">
-        <v>4.029474076196351</v>
+        <v>1.972559218027101</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
+        <v>0.1752608083377538</v>
+      </c>
+      <c r="I15">
+        <v>0.00422776253571655</v>
+      </c>
+      <c r="J15">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.8012068884842236</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.07314955356676478</v>
       </c>
       <c r="M15">
-        <v>2.156534978957922</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>1.03313468698282</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.7918335254870428</v>
+      </c>
+      <c r="P15">
+        <v>0.742300548427967</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.197334380960797</v>
+        <v>3.914045431387308</v>
       </c>
       <c r="C16">
-        <v>1.717438607285374</v>
+        <v>1.393285947357981</v>
       </c>
       <c r="D16">
-        <v>0.04515827745381529</v>
+        <v>0.01338332163559741</v>
       </c>
       <c r="E16">
-        <v>0.2026341535636718</v>
+        <v>0.03587786601988174</v>
       </c>
       <c r="F16">
-        <v>3.75094012228783</v>
+        <v>1.893386706303559</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
+        <v>0.1620891019791628</v>
+      </c>
+      <c r="I16">
+        <v>0.00303798854087578</v>
+      </c>
+      <c r="J16">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.7778816380346996</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.06890512380635627</v>
       </c>
       <c r="M16">
-        <v>1.997911733506385</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>1.025493589800377</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.7457506055469807</v>
+      </c>
+      <c r="P16">
+        <v>0.7685166463001807</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.905104818727807</v>
+        <v>3.807130293729017</v>
       </c>
       <c r="C17">
-        <v>1.635967994520513</v>
+        <v>1.374229847581375</v>
       </c>
       <c r="D17">
-        <v>0.04399310957139591</v>
+        <v>0.01260798657849094</v>
       </c>
       <c r="E17">
-        <v>0.1929176839446853</v>
+        <v>0.032749311457549</v>
       </c>
       <c r="F17">
-        <v>3.58448185039498</v>
+        <v>1.940878978539345</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
+        <v>0.1241919530855569</v>
+      </c>
+      <c r="I17">
+        <v>0.002606854182780616</v>
+      </c>
+      <c r="J17">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.8006477491421577</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.06197873189062086</v>
       </c>
       <c r="M17">
-        <v>1.902517092860791</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>1.022050562212812</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.7607261944679848</v>
+      </c>
+      <c r="P17">
+        <v>0.7915669945333068</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.738794511965807</v>
+        <v>3.828822084073977</v>
       </c>
       <c r="C18">
-        <v>1.589616983809378</v>
+        <v>1.416114412117849</v>
       </c>
       <c r="D18">
-        <v>0.04335472518571493</v>
+        <v>0.01249508421780887</v>
       </c>
       <c r="E18">
-        <v>0.1874142522064801</v>
+        <v>0.03189151202174179</v>
       </c>
       <c r="F18">
-        <v>3.490220108683303</v>
+        <v>2.111521484809472</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
+        <v>0.07134687373623194</v>
+      </c>
+      <c r="I18">
+        <v>0.002310042382521971</v>
+      </c>
+      <c r="J18">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.8704438959324321</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.05954181471387643</v>
       </c>
       <c r="M18">
-        <v>1.848286415597116</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>1.020493775703628</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.832389681253737</v>
+      </c>
+      <c r="P18">
+        <v>0.8213850448316453</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.682772809213191</v>
+        <v>3.939442498150129</v>
       </c>
       <c r="C19">
-        <v>1.57400583539129</v>
+        <v>1.508253977882703</v>
       </c>
       <c r="D19">
-        <v>0.0431437681635245</v>
+        <v>0.01378023528806338</v>
       </c>
       <c r="E19">
-        <v>0.1855647496852768</v>
+        <v>0.03784462195196703</v>
       </c>
       <c r="F19">
-        <v>3.458546439633466</v>
+        <v>2.367008679928873</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
+        <v>0.02616777148332972</v>
+      </c>
+      <c r="I19">
+        <v>0.002629351780377043</v>
+      </c>
+      <c r="J19">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.9699995993896948</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.07215567673064527</v>
       </c>
       <c r="M19">
-        <v>1.830028498462838</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>1.020036414534403</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.9478887803037992</v>
+      </c>
+      <c r="P19">
+        <v>0.8618866777587826</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.936025777740042</v>
+        <v>4.322452802198029</v>
       </c>
       <c r="C20">
-        <v>1.644586851977522</v>
+        <v>1.73471788292386</v>
       </c>
       <c r="D20">
-        <v>0.04411378803002464</v>
+        <v>0.0187107617727662</v>
       </c>
       <c r="E20">
-        <v>0.1939430115038618</v>
+        <v>0.06193877000669801</v>
       </c>
       <c r="F20">
-        <v>3.602045339002331</v>
+        <v>2.873430460200552</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
+        <v>0.0008257744425805846</v>
+      </c>
+      <c r="I20">
+        <v>0.004063566671785424</v>
+      </c>
+      <c r="J20">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.162329216119645</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1248870018704693</v>
       </c>
       <c r="M20">
-        <v>1.912604583580958</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>1.022372515925596</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>1.185690189411687</v>
+      </c>
+      <c r="P20">
+        <v>0.9311898955130857</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.809396021256873</v>
+        <v>4.897592191123181</v>
       </c>
       <c r="C21">
-        <v>1.888196093070462</v>
+        <v>1.976736137839282</v>
       </c>
       <c r="D21">
-        <v>0.04777449363137265</v>
+        <v>0.02160512254953417</v>
       </c>
       <c r="E21">
-        <v>0.2231728187368347</v>
+        <v>0.0718550143660206</v>
       </c>
       <c r="F21">
-        <v>4.102873810371136</v>
+        <v>3.192558724465243</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
+        <v>0.002981561145535938</v>
+      </c>
+      <c r="I21">
+        <v>0.007682009714321758</v>
+      </c>
+      <c r="J21">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.271176562086495</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1451746828989258</v>
       </c>
       <c r="M21">
-        <v>2.198138447493889</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>1.035521794762005</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>1.35203435825693</v>
+      </c>
+      <c r="P21">
+        <v>0.9059379580192655</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.400128504246595</v>
+        <v>5.273853435776687</v>
       </c>
       <c r="C22">
-        <v>2.053182782788497</v>
+        <v>2.127010765171292</v>
       </c>
       <c r="D22">
-        <v>0.05052005737614707</v>
+        <v>0.02314542416933207</v>
       </c>
       <c r="E22">
-        <v>0.2432330348859395</v>
+        <v>0.07692880311197925</v>
       </c>
       <c r="F22">
-        <v>4.446581015568768</v>
+        <v>3.390679581257416</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
+        <v>0.005170356629482065</v>
+      </c>
+      <c r="I22">
+        <v>0.01054266407771376</v>
+      </c>
+      <c r="J22">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.340221354074572</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1555049473746308</v>
       </c>
       <c r="M22">
-        <v>2.391932477459434</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>1.048654809224345</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.452325356125925</v>
+      </c>
+      <c r="P22">
+        <v>0.8880912707764139</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.08279564522212</v>
+        <v>5.081382793842067</v>
       </c>
       <c r="C23">
-        <v>1.964530724170061</v>
+        <v>2.044483732807407</v>
       </c>
       <c r="D23">
-        <v>0.04901857311514846</v>
+        <v>0.02216374532184417</v>
       </c>
       <c r="E23">
-        <v>0.2324282445045966</v>
+        <v>0.0741260402865187</v>
       </c>
       <c r="F23">
-        <v>4.26146592160157</v>
+        <v>3.29246234195989</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
+        <v>0.003943870149044182</v>
+      </c>
+      <c r="I23">
+        <v>0.008692213841977825</v>
+      </c>
+      <c r="J23">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.308260653817001</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1500693774472666</v>
       </c>
       <c r="M23">
-        <v>2.28776278101256</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>1.041188661937909</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>1.399326153862688</v>
+      </c>
+      <c r="P23">
+        <v>0.9000953949607862</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.922041171381068</v>
+        <v>4.342885071831233</v>
       </c>
       <c r="C24">
-        <v>1.640688760817739</v>
+        <v>1.739848033110206</v>
       </c>
       <c r="D24">
-        <v>0.04405913194731426</v>
+        <v>0.01885013650960943</v>
       </c>
       <c r="E24">
-        <v>0.1934792053748708</v>
+        <v>0.0639070589917079</v>
       </c>
       <c r="F24">
-        <v>3.594100442001718</v>
+        <v>2.913488040892901</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
+        <v>0.0007663808320486076</v>
+      </c>
+      <c r="I24">
+        <v>0.003652505043450383</v>
+      </c>
+      <c r="J24">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.181191962012377</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1297336042233965</v>
       </c>
       <c r="M24">
-        <v>1.908042135277611</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>1.022225652144542</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>1.199127067068886</v>
+      </c>
+      <c r="P24">
+        <v>0.9426549454788642</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.736162724735834</v>
+        <v>3.553771984717116</v>
       </c>
       <c r="C25">
-        <v>1.310355782715476</v>
+        <v>1.418975102119589</v>
       </c>
       <c r="D25">
-        <v>0.03989987161521213</v>
+        <v>0.01553838659199336</v>
       </c>
       <c r="E25">
-        <v>0.154651225746953</v>
+        <v>0.05331712712619918</v>
       </c>
       <c r="F25">
-        <v>2.929632318038273</v>
+        <v>2.514993652546039</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
+        <v>0.0001281133278112634</v>
+      </c>
+      <c r="I25">
+        <v>0.00118230096994143</v>
+      </c>
+      <c r="J25">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.048000421368712</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1084708316421583</v>
       </c>
       <c r="M25">
-        <v>1.522269992624146</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>1.017676184199658</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>0.985720692809366</v>
+      </c>
+      <c r="P25">
+        <v>0.9908837957649581</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_30/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_30/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.9968887100747</v>
+        <v>2.686753829170698</v>
       </c>
       <c r="C2">
-        <v>1.182669704744626</v>
+        <v>1.269390873153725</v>
       </c>
       <c r="D2">
-        <v>0.0129082760155832</v>
+        <v>0.02274485445144236</v>
       </c>
       <c r="E2">
-        <v>0.04557972140984035</v>
+        <v>0.05205854590391823</v>
       </c>
       <c r="F2">
-        <v>2.246918100950992</v>
+        <v>1.935217992038403</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.00166999025492709</v>
+        <v>0.00132587073494661</v>
       </c>
       <c r="I2">
-        <v>0.0007939189846943862</v>
+        <v>0.0006105695494618146</v>
       </c>
       <c r="J2">
-        <v>0.02672462365074526</v>
+        <v>0.07607150459155762</v>
       </c>
       <c r="K2">
-        <v>0.9644144872880247</v>
+        <v>0.758412282179485</v>
       </c>
       <c r="L2">
-        <v>0.09341434991400277</v>
+        <v>0.3388784721441169</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.2373064710735378</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.09369702621949827</v>
       </c>
       <c r="O2">
-        <v>0.8314651064634475</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>1.034591673912693</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.8115760517303912</v>
+      </c>
+      <c r="R2">
+        <v>0.9125019733606798</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.609275583677857</v>
+        <v>2.347889824641982</v>
       </c>
       <c r="C3">
-        <v>1.027812143430538</v>
+        <v>1.101759527878585</v>
       </c>
       <c r="D3">
-        <v>0.01140961858917322</v>
+        <v>0.02016077597836841</v>
       </c>
       <c r="E3">
-        <v>0.04055991811116755</v>
+        <v>0.04665348066341402</v>
       </c>
       <c r="F3">
-        <v>2.057642189004383</v>
+        <v>1.787063577715571</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.003820390175247046</v>
+        <v>0.003124714159122188</v>
       </c>
       <c r="I3">
-        <v>0.002003879855049906</v>
+        <v>0.00123171723080695</v>
       </c>
       <c r="J3">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142331</v>
       </c>
       <c r="K3">
-        <v>0.9020241767566191</v>
+        <v>0.720278602520743</v>
       </c>
       <c r="L3">
-        <v>0.08323124749417943</v>
+        <v>0.3326824099354155</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.2155787971591536</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.08426967165066657</v>
       </c>
       <c r="O3">
-        <v>0.7267360858810221</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1.061418197340295</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.7102740392954843</v>
+      </c>
+      <c r="R3">
+        <v>0.9460711558244608</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.371367589252316</v>
+        <v>2.139204289423844</v>
       </c>
       <c r="C4">
-        <v>0.9337648520109951</v>
+        <v>0.9999791727927914</v>
       </c>
       <c r="D4">
-        <v>0.01052576313701259</v>
+        <v>0.01862030967485495</v>
       </c>
       <c r="E4">
-        <v>0.03751996137203584</v>
+        <v>0.0433675555313755</v>
       </c>
       <c r="F4">
-        <v>1.942393359104727</v>
+        <v>1.696628640859743</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.005635418580113516</v>
+        <v>0.004658371929014749</v>
       </c>
       <c r="I4">
-        <v>0.003255175983809977</v>
+        <v>0.002005567656098162</v>
       </c>
       <c r="J4">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153714</v>
       </c>
       <c r="K4">
-        <v>0.8639847455478247</v>
+        <v>0.6968998570020659</v>
       </c>
       <c r="L4">
-        <v>0.07702233189086982</v>
+        <v>0.3285376077717785</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.2031576920917892</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.07849748653578104</v>
       </c>
       <c r="O4">
-        <v>0.6626231242546794</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.078168096719189</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.6481809802534499</v>
+      </c>
+      <c r="R4">
+        <v>0.9670690356549567</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.27236293039573</v>
+        <v>2.052164812579008</v>
       </c>
       <c r="C5">
-        <v>0.8961862554275228</v>
+        <v>0.9592619343116269</v>
       </c>
       <c r="D5">
-        <v>0.01021007547977959</v>
+        <v>0.01805515642962874</v>
       </c>
       <c r="E5">
-        <v>0.03630996312265289</v>
+        <v>0.04205594113917321</v>
       </c>
       <c r="F5">
-        <v>1.8937099771302</v>
+        <v>1.658209965280946</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.00649761457758119</v>
+        <v>0.005389710485940946</v>
       </c>
       <c r="I5">
-        <v>0.003964026781382302</v>
+        <v>0.002502792436042789</v>
       </c>
       <c r="J5">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153728</v>
       </c>
       <c r="K5">
-        <v>0.8472975609010902</v>
+        <v>0.6863579998866598</v>
       </c>
       <c r="L5">
-        <v>0.07447762545067249</v>
+        <v>0.3263243703443948</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1979952438080907</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.07612622896531107</v>
       </c>
       <c r="O5">
-        <v>0.6363931103751383</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.0843462145233</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.6227655150462255</v>
+      </c>
+      <c r="R5">
+        <v>0.9752803466707931</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.253424373280154</v>
+        <v>2.035475258371093</v>
       </c>
       <c r="C6">
-        <v>0.8905926586227793</v>
+        <v>0.9531300716168403</v>
       </c>
       <c r="D6">
-        <v>0.01020306481486344</v>
+        <v>0.01802594592943763</v>
       </c>
       <c r="E6">
-        <v>0.03613445906543689</v>
+        <v>0.04186422264267087</v>
       </c>
       <c r="F6">
-        <v>1.883282075486065</v>
+        <v>1.64979108493317</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.006653976820805652</v>
+        <v>0.005522369443263342</v>
       </c>
       <c r="I6">
-        <v>0.0041926563518766</v>
+        <v>0.002708529789790859</v>
       </c>
       <c r="J6">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142324</v>
       </c>
       <c r="K6">
-        <v>0.8430132821553897</v>
+        <v>0.6833666532223077</v>
       </c>
       <c r="L6">
-        <v>0.07402872627086765</v>
+        <v>0.3254176103424626</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1967528794390319</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.07570768800497163</v>
       </c>
       <c r="O6">
-        <v>0.63186881553451</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.084508153987734</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.6183880864881317</v>
+      </c>
+      <c r="R6">
+        <v>0.9761174482145591</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.363183102006587</v>
+        <v>2.131934511224074</v>
       </c>
       <c r="C7">
-        <v>0.9349903244817312</v>
+        <v>1.001111387800734</v>
       </c>
       <c r="D7">
-        <v>0.01064404497005889</v>
+        <v>0.01878844589358764</v>
       </c>
       <c r="E7">
-        <v>0.037571839333431</v>
+        <v>0.04342034937293704</v>
       </c>
       <c r="F7">
-        <v>1.935291210750975</v>
+        <v>1.690524018888425</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.005662098724677822</v>
+        <v>0.004680629974026407</v>
       </c>
       <c r="I7">
-        <v>0.003528787853984028</v>
+        <v>0.002312404721984684</v>
       </c>
       <c r="J7">
-        <v>0.0267246236506935</v>
+        <v>0.0759357156874878</v>
       </c>
       <c r="K7">
-        <v>0.8596109591704675</v>
+        <v>0.6933729161531303</v>
       </c>
       <c r="L7">
-        <v>0.07691461289012125</v>
+        <v>0.3270731751998568</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.2019774818105304</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.07839756269214249</v>
       </c>
       <c r="O7">
-        <v>0.6618007032971747</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>1.075894988647772</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.6474047503504465</v>
+      </c>
+      <c r="R7">
+        <v>0.9657552343766245</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.85400995012327</v>
+        <v>2.561880344975066</v>
       </c>
       <c r="C8">
-        <v>1.131349742283646</v>
+        <v>1.213578455504774</v>
       </c>
       <c r="D8">
-        <v>0.01254610963844094</v>
+        <v>0.02208148656805875</v>
       </c>
       <c r="E8">
-        <v>0.04392943299854579</v>
+        <v>0.05028135742574591</v>
       </c>
       <c r="F8">
-        <v>2.172859972869915</v>
+        <v>1.876616401018495</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.002317253130270203</v>
+        <v>0.001863788522857845</v>
       </c>
       <c r="I8">
-        <v>0.001403825005874992</v>
+        <v>0.001090617734806898</v>
       </c>
       <c r="J8">
-        <v>0.0267246236506935</v>
+        <v>0.07609806137284014</v>
       </c>
       <c r="K8">
-        <v>0.937325139604674</v>
+        <v>0.7407935369463559</v>
       </c>
       <c r="L8">
-        <v>0.08979252290690809</v>
+        <v>0.3350125043415133</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.2280658861016462</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.09035024893654153</v>
       </c>
       <c r="O8">
-        <v>0.7946760150754812</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>1.040732498634405</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.7760361953556938</v>
+      </c>
+      <c r="R8">
+        <v>0.9222385463507248</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.831535670435755</v>
+        <v>3.412306616707838</v>
       </c>
       <c r="C9">
-        <v>1.523017313058062</v>
+        <v>1.637774802366721</v>
       </c>
       <c r="D9">
-        <v>0.01639932354759388</v>
+        <v>0.02863350849910518</v>
       </c>
       <c r="E9">
-        <v>0.05671333971463177</v>
+        <v>0.06395458465415516</v>
       </c>
       <c r="F9">
-        <v>2.659777024133703</v>
+        <v>2.25708929756847</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.641868545096628E-06</v>
+        <v>1.239356855720075E-05</v>
       </c>
       <c r="I9">
-        <v>0.001277266252055043</v>
+        <v>0.001652981291187849</v>
       </c>
       <c r="J9">
-        <v>0.0267246236506935</v>
+        <v>0.07618838127587857</v>
       </c>
       <c r="K9">
-        <v>1.099948166195276</v>
+        <v>0.8404955110605243</v>
       </c>
       <c r="L9">
-        <v>0.1157026455615195</v>
+        <v>0.3503192429208966</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.2889798557095062</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.1141788440857852</v>
       </c>
       <c r="O9">
-        <v>1.058214965511851</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0.9783358719239672</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>1.030406691097973</v>
+      </c>
+      <c r="R9">
+        <v>0.8425094016026442</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.529183140432735</v>
+        <v>4.017548631547868</v>
       </c>
       <c r="C10">
-        <v>1.804326840822682</v>
+        <v>1.94176964094703</v>
       </c>
       <c r="D10">
-        <v>0.0190749516814126</v>
+        <v>0.0328730135907449</v>
       </c>
       <c r="E10">
-        <v>0.06372967632634463</v>
+        <v>0.0712061223072773</v>
       </c>
       <c r="F10">
-        <v>2.980333821786473</v>
+        <v>2.504285238515081</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.001460728095120878</v>
+        <v>0.001378057403576438</v>
       </c>
       <c r="I10">
-        <v>0.004455604335899643</v>
+        <v>0.004605937858172204</v>
       </c>
       <c r="J10">
-        <v>0.0267246236506935</v>
+        <v>0.07897366448939458</v>
       </c>
       <c r="K10">
-        <v>1.203431190352134</v>
+        <v>0.9012828841906426</v>
       </c>
       <c r="L10">
-        <v>0.128922210652938</v>
+        <v>0.3551592097746408</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.3335121475326517</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.1258318484316376</v>
       </c>
       <c r="O10">
-        <v>1.234457768136423</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.9242059895108312</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1.199874794952009</v>
+      </c>
+      <c r="R10">
+        <v>0.7817454088091615</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.648604695655081</v>
+        <v>4.142295941600253</v>
       </c>
       <c r="C11">
-        <v>1.801847742241705</v>
+        <v>1.93512137597088</v>
       </c>
       <c r="D11">
-        <v>0.01692414912221274</v>
+        <v>0.02738865576098348</v>
       </c>
       <c r="E11">
-        <v>0.04752068120957098</v>
+        <v>0.05226563355123837</v>
       </c>
       <c r="F11">
-        <v>2.756225194954226</v>
+        <v>2.311154405295085</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.02015842049436856</v>
+        <v>0.02003974753264615</v>
       </c>
       <c r="I11">
-        <v>0.006032391273416593</v>
+        <v>0.006154494740508554</v>
       </c>
       <c r="J11">
-        <v>0.0267246236506935</v>
+        <v>0.09407249181950306</v>
       </c>
       <c r="K11">
-        <v>1.103794021104079</v>
+        <v>0.8235129608075766</v>
       </c>
       <c r="L11">
-        <v>0.09132740921175753</v>
+        <v>0.3198098847553723</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.3121983963744412</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.08896732330942925</v>
       </c>
       <c r="O11">
-        <v>1.149031527015381</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.8287758955861158</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>1.116351565509824</v>
+      </c>
+      <c r="R11">
+        <v>0.727886274515428</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.610232404967178</v>
+        <v>4.127406766389356</v>
       </c>
       <c r="C12">
-        <v>1.736513622615291</v>
+        <v>1.861547755557353</v>
       </c>
       <c r="D12">
-        <v>0.01549428231583239</v>
+        <v>0.02289731334698253</v>
       </c>
       <c r="E12">
-        <v>0.03911092146207418</v>
+        <v>0.04164898568080755</v>
       </c>
       <c r="F12">
-        <v>2.515990857715551</v>
+        <v>2.110097797040311</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.05861375503558719</v>
+        <v>0.05851291219315868</v>
       </c>
       <c r="I12">
-        <v>0.006093801051568093</v>
+        <v>0.006225704315175662</v>
       </c>
       <c r="J12">
-        <v>0.0267246236506935</v>
+        <v>0.1054405423656988</v>
       </c>
       <c r="K12">
-        <v>1.007437115948555</v>
+        <v>0.7525704225140544</v>
       </c>
       <c r="L12">
-        <v>0.07263423056859608</v>
+        <v>0.2922622308884968</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.2869979695720417</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.07114909661161306</v>
       </c>
       <c r="O12">
-        <v>1.04362739954653</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0.775636501693576</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>1.013875273237417</v>
+      </c>
+      <c r="R12">
+        <v>0.7071793940211579</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.437399341582534</v>
+        <v>3.994528667528186</v>
       </c>
       <c r="C13">
-        <v>1.622222713632823</v>
+        <v>1.735388141823591</v>
       </c>
       <c r="D13">
-        <v>0.01466721052427844</v>
+        <v>0.0192273645567731</v>
       </c>
       <c r="E13">
-        <v>0.03624214526728675</v>
+        <v>0.03690710343485026</v>
       </c>
       <c r="F13">
-        <v>2.240452190550073</v>
+        <v>1.883167584674837</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.1138933132016007</v>
+        <v>0.113844340177323</v>
       </c>
       <c r="I13">
-        <v>0.005274391114379995</v>
+        <v>0.005526329152313991</v>
       </c>
       <c r="J13">
-        <v>0.02672462365057982</v>
+        <v>0.1026584643119293</v>
       </c>
       <c r="K13">
-        <v>0.901772820343723</v>
+        <v>0.6775151256166083</v>
       </c>
       <c r="L13">
-        <v>0.06717401858042926</v>
+        <v>0.2666189791765063</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.2557376340570414</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.06669344072486716</v>
       </c>
       <c r="O13">
-        <v>0.9170273691406905</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0.7476145560442689</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.8911137906949236</v>
+      </c>
+      <c r="R13">
+        <v>0.7075099892702177</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.254568875861139</v>
+        <v>3.846940183361937</v>
       </c>
       <c r="C14">
-        <v>1.521531329680386</v>
+        <v>1.624830299643691</v>
       </c>
       <c r="D14">
-        <v>0.01450221641943017</v>
+        <v>0.01726278216702415</v>
       </c>
       <c r="E14">
-        <v>0.03762581167423118</v>
+        <v>0.03718053575593583</v>
       </c>
       <c r="F14">
-        <v>2.032993145732419</v>
+        <v>1.713465854199967</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.1628820206675812</v>
+        <v>0.1628696269430776</v>
       </c>
       <c r="I14">
-        <v>0.004468323862987233</v>
+        <v>0.00484408020572058</v>
       </c>
       <c r="J14">
-        <v>0.02672462365057982</v>
+        <v>0.09486545036309479</v>
       </c>
       <c r="K14">
-        <v>0.8237169332234515</v>
+        <v>0.6229835248589524</v>
       </c>
       <c r="L14">
-        <v>0.07138291724044876</v>
+        <v>0.249197377378799</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.2313737239470015</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.07162760724184025</v>
       </c>
       <c r="O14">
-        <v>0.8202169348572639</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0.7405594568859328</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.7973145345943493</v>
+      </c>
+      <c r="R14">
+        <v>0.7180291345183321</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.179395793318918</v>
+        <v>3.783952348199136</v>
       </c>
       <c r="C15">
-        <v>1.487565617501218</v>
+        <v>1.587692286891922</v>
       </c>
       <c r="D15">
-        <v>0.01442777338558177</v>
+        <v>0.01680920254644391</v>
       </c>
       <c r="E15">
-        <v>0.03822015305915549</v>
+        <v>0.03756740733794661</v>
       </c>
       <c r="F15">
-        <v>1.972559218027101</v>
+        <v>1.664507578054469</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1752608083377538</v>
+        <v>0.1752588961134336</v>
       </c>
       <c r="I15">
-        <v>0.00422776253571655</v>
+        <v>0.004668015597048658</v>
       </c>
       <c r="J15">
-        <v>0.02672462365057982</v>
+        <v>0.09097538657191606</v>
       </c>
       <c r="K15">
-        <v>0.8012068884842236</v>
+        <v>0.6075794834214534</v>
       </c>
       <c r="L15">
-        <v>0.07314955356676478</v>
+        <v>0.2447461804241513</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.2238373082431409</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.07360110056869473</v>
       </c>
       <c r="O15">
-        <v>0.7918335254870428</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0.742300548427967</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.7698573085538669</v>
+      </c>
+      <c r="R15">
+        <v>0.72368414791476</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.914045431387308</v>
+        <v>3.549695173967621</v>
       </c>
       <c r="C16">
-        <v>1.393285947357981</v>
+        <v>1.486325125406381</v>
       </c>
       <c r="D16">
-        <v>0.01338332163559741</v>
+        <v>0.01595900693216601</v>
       </c>
       <c r="E16">
-        <v>0.03587786601988174</v>
+        <v>0.03566455556121628</v>
       </c>
       <c r="F16">
-        <v>1.893386706303559</v>
+        <v>1.605190220059484</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1620891019791628</v>
+        <v>0.162097156324208</v>
       </c>
       <c r="I16">
-        <v>0.00303798854087578</v>
+        <v>0.003603751846974923</v>
       </c>
       <c r="J16">
-        <v>0.02672462365057982</v>
+        <v>0.07852597926776106</v>
       </c>
       <c r="K16">
-        <v>0.7778816380346996</v>
+        <v>0.5954961113546489</v>
       </c>
       <c r="L16">
-        <v>0.06890512380635627</v>
+        <v>0.2457532692039983</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.2118149777220992</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.06969896207459314</v>
       </c>
       <c r="O16">
-        <v>0.7457506055469807</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0.7685166463001807</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.7256073521408624</v>
+      </c>
+      <c r="R16">
+        <v>0.7455279922215041</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.807130293729017</v>
+        <v>3.448081050559608</v>
       </c>
       <c r="C17">
-        <v>1.374229847581375</v>
+        <v>1.467022607162562</v>
       </c>
       <c r="D17">
-        <v>0.01260798657849094</v>
+        <v>0.01621687372216662</v>
       </c>
       <c r="E17">
-        <v>0.032749311457549</v>
+        <v>0.03341229079737262</v>
       </c>
       <c r="F17">
-        <v>1.940878978539345</v>
+        <v>1.648485801681588</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1241919530855569</v>
+        <v>0.1241863446028759</v>
       </c>
       <c r="I17">
-        <v>0.002606854182780616</v>
+        <v>0.003200573562303966</v>
       </c>
       <c r="J17">
-        <v>0.02672462365057982</v>
+        <v>0.07630534183234339</v>
       </c>
       <c r="K17">
-        <v>0.8006477491421577</v>
+        <v>0.6147781169961277</v>
       </c>
       <c r="L17">
-        <v>0.06197873189062086</v>
+        <v>0.2559860568507446</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.2151138891034989</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.06268221817973618</v>
       </c>
       <c r="O17">
-        <v>0.7607261944679848</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0.7915669945333068</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.7404697651831711</v>
+      </c>
+      <c r="R17">
+        <v>0.7565831043624947</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.828822084073977</v>
+        <v>3.45321862948208</v>
       </c>
       <c r="C18">
-        <v>1.416114412117849</v>
+        <v>1.514599234058608</v>
       </c>
       <c r="D18">
-        <v>0.01249508421780887</v>
+        <v>0.01803854773425684</v>
       </c>
       <c r="E18">
-        <v>0.03189151202174179</v>
+        <v>0.03399293016572225</v>
       </c>
       <c r="F18">
-        <v>2.111521484809472</v>
+        <v>1.792491027267715</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07134687373623194</v>
+        <v>0.07134010032985572</v>
       </c>
       <c r="I18">
-        <v>0.002310042382521971</v>
+        <v>0.002853844093968938</v>
       </c>
       <c r="J18">
-        <v>0.02672462365057982</v>
+        <v>0.07595859146320727</v>
       </c>
       <c r="K18">
-        <v>0.8704438959324321</v>
+        <v>0.6670004005574413</v>
       </c>
       <c r="L18">
-        <v>0.05954181471387643</v>
+        <v>0.2770310025878686</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.2329379199476307</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.05974480175501817</v>
       </c>
       <c r="O18">
-        <v>0.832389681253737</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0.8213850448316453</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.8102791078065152</v>
+      </c>
+      <c r="R18">
+        <v>0.7645070519088781</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.939442498150129</v>
+        <v>3.532160661097635</v>
       </c>
       <c r="C19">
-        <v>1.508253977882703</v>
+        <v>1.616881497323391</v>
       </c>
       <c r="D19">
-        <v>0.01378023528806338</v>
+        <v>0.02215963947061184</v>
       </c>
       <c r="E19">
-        <v>0.03784462195196703</v>
+        <v>0.04190228303353116</v>
       </c>
       <c r="F19">
-        <v>2.367008679928873</v>
+        <v>2.005072230485169</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02616777148332972</v>
+        <v>0.02617395306492654</v>
       </c>
       <c r="I19">
-        <v>0.002629351780377043</v>
+        <v>0.003181251288808085</v>
       </c>
       <c r="J19">
-        <v>0.02672462365057982</v>
+        <v>0.07592634768438788</v>
       </c>
       <c r="K19">
-        <v>0.9699995993896948</v>
+        <v>0.7392040754496918</v>
       </c>
       <c r="L19">
-        <v>0.07215567673064527</v>
+        <v>0.3042719922030059</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.2600293739091484</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.0714967388486869</v>
       </c>
       <c r="O19">
-        <v>0.9478887803037992</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0.8618866777587826</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.9225683756038592</v>
+      </c>
+      <c r="R19">
+        <v>0.776049295287812</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.322452802198029</v>
+        <v>3.838345282265834</v>
       </c>
       <c r="C20">
-        <v>1.73471788292386</v>
+        <v>1.865960271180256</v>
       </c>
       <c r="D20">
-        <v>0.0187107617727662</v>
+        <v>0.03227665818759817</v>
       </c>
       <c r="E20">
-        <v>0.06193877000669801</v>
+        <v>0.06936136160834216</v>
       </c>
       <c r="F20">
-        <v>2.873430460200552</v>
+        <v>2.42015596774938</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.0008257744425805846</v>
+        <v>0.0008008555902732084</v>
       </c>
       <c r="I20">
-        <v>0.004063566671785424</v>
+        <v>0.004493684947187937</v>
       </c>
       <c r="J20">
-        <v>0.02672462365057982</v>
+        <v>0.07642603823835525</v>
       </c>
       <c r="K20">
-        <v>1.162329216119645</v>
+        <v>0.8743871768840421</v>
       </c>
       <c r="L20">
-        <v>0.1248870018704693</v>
+        <v>0.3500208886181682</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.31725237634938</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.1222558645472347</v>
       </c>
       <c r="O20">
-        <v>1.185690189411687</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0.9311898955130857</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>1.153083605467899</v>
+      </c>
+      <c r="R20">
+        <v>0.7939345393771937</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.897592191123181</v>
+        <v>4.331956856936415</v>
       </c>
       <c r="C21">
-        <v>1.976736137839282</v>
+        <v>2.128133435859638</v>
       </c>
       <c r="D21">
-        <v>0.02160512254953417</v>
+        <v>0.03709927843462069</v>
       </c>
       <c r="E21">
-        <v>0.0718550143660206</v>
+        <v>0.07993869612613835</v>
       </c>
       <c r="F21">
-        <v>3.192558724465243</v>
+        <v>2.669870495774632</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.002981561145535938</v>
+        <v>0.002707974661119383</v>
       </c>
       <c r="I21">
-        <v>0.007682009714321758</v>
+        <v>0.007597534997872302</v>
       </c>
       <c r="J21">
-        <v>0.02672462365057982</v>
+        <v>0.1039450029752089</v>
       </c>
       <c r="K21">
-        <v>1.271176562086495</v>
+        <v>0.9421164134064384</v>
       </c>
       <c r="L21">
-        <v>0.1451746828989258</v>
+        <v>0.3608512428283035</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.3611532806704361</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.1409856537321517</v>
       </c>
       <c r="O21">
-        <v>1.35203435825693</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0.9059379580192655</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.313050440397134</v>
+      </c>
+      <c r="R21">
+        <v>0.7552202716565155</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.273853435776687</v>
+        <v>4.655237029875536</v>
       </c>
       <c r="C22">
-        <v>2.127010765171292</v>
+        <v>2.290858541744797</v>
       </c>
       <c r="D22">
-        <v>0.02314542416933207</v>
+        <v>0.0395708515533606</v>
       </c>
       <c r="E22">
-        <v>0.07692880311197925</v>
+        <v>0.08524294433091839</v>
       </c>
       <c r="F22">
-        <v>3.390679581257416</v>
+        <v>2.82425538069333</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.005170356629482065</v>
+        <v>0.004622566739977962</v>
       </c>
       <c r="I22">
-        <v>0.01054266407771376</v>
+        <v>0.009859927511148392</v>
       </c>
       <c r="J22">
-        <v>0.02672462365057982</v>
+        <v>0.1466045079828149</v>
       </c>
       <c r="K22">
-        <v>1.340221354074572</v>
+        <v>0.9850730124643405</v>
       </c>
       <c r="L22">
-        <v>0.1555049473746308</v>
+        <v>0.3669648973435145</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.3903555099626885</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.150310113738513</v>
       </c>
       <c r="O22">
-        <v>1.452325356125925</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0.8880912707764139</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.409229960255033</v>
+      </c>
+      <c r="R22">
+        <v>0.7297764562010052</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.081382793842067</v>
+        <v>4.49010701863881</v>
       </c>
       <c r="C23">
-        <v>2.044483732807407</v>
+        <v>2.201736956931654</v>
       </c>
       <c r="D23">
-        <v>0.02216374532184417</v>
+        <v>0.03801461402396455</v>
       </c>
       <c r="E23">
-        <v>0.0741260402865187</v>
+        <v>0.08231441085712277</v>
       </c>
       <c r="F23">
-        <v>3.29246234195989</v>
+        <v>2.748283319810099</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.003943870149044182</v>
+        <v>0.003551346251406073</v>
       </c>
       <c r="I23">
-        <v>0.008692213841977825</v>
+        <v>0.008280827071082797</v>
       </c>
       <c r="J23">
-        <v>0.02672462365057982</v>
+        <v>0.1149997787806356</v>
       </c>
       <c r="K23">
-        <v>1.308260653817001</v>
+        <v>0.966022054180506</v>
       </c>
       <c r="L23">
-        <v>0.1500693774472666</v>
+        <v>0.3650965829279187</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.3762488433063069</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.1454060933208794</v>
       </c>
       <c r="O23">
-        <v>1.399326153862688</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0.9000953949607862</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.358391299239017</v>
+      </c>
+      <c r="R23">
+        <v>0.7445387633876557</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.342885071831233</v>
+        <v>3.854303921004657</v>
       </c>
       <c r="C24">
-        <v>1.739848033110206</v>
+        <v>1.872170197234709</v>
       </c>
       <c r="D24">
-        <v>0.01885013650960943</v>
+        <v>0.03265450617806209</v>
       </c>
       <c r="E24">
-        <v>0.0639070589917079</v>
+        <v>0.07157548110383516</v>
       </c>
       <c r="F24">
-        <v>2.913488040892901</v>
+        <v>2.453784384446294</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.0007663808320486076</v>
+        <v>0.0007376944470931512</v>
       </c>
       <c r="I24">
-        <v>0.003652505043450383</v>
+        <v>0.003976701841403418</v>
       </c>
       <c r="J24">
-        <v>0.02672462365057982</v>
+        <v>0.076368825553498</v>
       </c>
       <c r="K24">
-        <v>1.181191962012377</v>
+        <v>0.8886563164018</v>
       </c>
       <c r="L24">
-        <v>0.1297336042233965</v>
+        <v>0.3554287012932988</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.3225711334641943</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.1269779280989383</v>
       </c>
       <c r="O24">
-        <v>1.199127067068886</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0.9426549454788642</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>1.166092519501078</v>
+      </c>
+      <c r="R24">
+        <v>0.7996845650636466</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.553771984717116</v>
+        <v>3.171198548524274</v>
       </c>
       <c r="C25">
-        <v>1.418975102119589</v>
+        <v>1.524757002954232</v>
       </c>
       <c r="D25">
-        <v>0.01553838659199336</v>
+        <v>0.02714458748567239</v>
       </c>
       <c r="E25">
-        <v>0.05331712712619918</v>
+        <v>0.06033672069025009</v>
       </c>
       <c r="F25">
-        <v>2.514993652546039</v>
+        <v>2.143274070645546</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.0001281133278112634</v>
+        <v>8.03707349095184E-05</v>
       </c>
       <c r="I25">
-        <v>0.00118230096994143</v>
+        <v>0.001576022113360942</v>
       </c>
       <c r="J25">
-        <v>0.02672462365057982</v>
+        <v>0.07595196022662787</v>
       </c>
       <c r="K25">
-        <v>1.048000421368712</v>
+        <v>0.8073398576678628</v>
       </c>
       <c r="L25">
-        <v>0.1084708316421583</v>
+        <v>0.3441556228093887</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.2693825291656751</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.1075568168207823</v>
       </c>
       <c r="O25">
-        <v>0.985720692809366</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0.9908837957649581</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0.9605636708427099</v>
+      </c>
+      <c r="R25">
+        <v>0.8615222199221364</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
